--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{FC4DE3C8-5C06-594F-AC54-2CCBE8D80784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7121D9F4-0166-6948-8875-56DD912A5091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stand Alone Storage Output" sheetId="1" r:id="rId1"/>
@@ -1516,8 +1516,8 @@
   </sheetPr>
   <dimension ref="A1:AL155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2984,7 +2984,7 @@
   </sheetPr>
   <dimension ref="C1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7121D9F4-0166-6948-8875-56DD912A5091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A928DE9D-BBD5-1F48-B614-D014796D05A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
   <si>
     <t xml:space="preserve">Levelized Cost of Stablized Electricity </t>
   </si>
@@ -227,13 +227,7 @@
     <t>MWh</t>
   </si>
   <si>
-    <t>MW * hours</t>
-  </si>
-  <si>
     <t>Cycles Required per Year</t>
-  </si>
-  <si>
-    <t>annual cycles</t>
   </si>
   <si>
     <t>Service Start</t>
@@ -1516,8 +1510,8 @@
   </sheetPr>
   <dimension ref="A1:AL155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1601,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1610,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>52</v>
@@ -1627,7 +1621,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1635,7 +1629,7 @@
         <v>54</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>55</v>
@@ -1646,24 +1640,19 @@
         <v>56</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1672,82 +1661,82 @@
     <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40"/>
       <c r="D14" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="7"/>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G15" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="42" t="s">
         <v>62</v>
-      </c>
-      <c r="Q15" s="42" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="47"/>
     </row>
     <row r="23" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="49" t="s">
@@ -1760,7 +1749,7 @@
     </row>
     <row r="24" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="49" t="s">
@@ -1773,28 +1762,28 @@
     </row>
     <row r="25" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H26" s="54"/>
       <c r="I26" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1807,51 +1796,51 @@
     </row>
     <row r="31" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I31" s="58"/>
     </row>
     <row r="32" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F32" s="59"/>
       <c r="G32" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H32" s="59"/>
       <c r="I32" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F33" s="59"/>
       <c r="G33" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="59"/>
       <c r="I33" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,25 +1848,25 @@
       <c r="E35" s="90"/>
       <c r="F35" s="59"/>
       <c r="G35" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H35" s="59"/>
       <c r="I35" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="90"/>
       <c r="F36" s="59"/>
       <c r="G36" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1891,16 +1880,16 @@
     <row r="38" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="41"/>
       <c r="D38" s="90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E38" s="90"/>
       <c r="F38" s="59"/>
       <c r="G38" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H38" s="59"/>
       <c r="I38" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1911,25 +1900,25 @@
     </row>
     <row r="40" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F40" s="59"/>
       <c r="G40" s="60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H40" s="59"/>
       <c r="I40" s="60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="63"/>
       <c r="G41" s="64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H41" s="63"/>
       <c r="I41" s="64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1948,7 +1937,7 @@
     </row>
     <row r="44" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I44" s="38"/>
     </row>
@@ -1959,30 +1948,30 @@
     <row r="46" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7"/>
       <c r="F46" s="56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G46" s="65"/>
       <c r="H46" s="66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I46" s="57"/>
     </row>
     <row r="47" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7"/>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G47" s="67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I47" s="64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2002,69 +1991,69 @@
     </row>
     <row r="50" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s">
         <v>92</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>95</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="L50" t="s">
+        <v>95</v>
+      </c>
+      <c r="N50" t="s">
         <v>96</v>
       </c>
-      <c r="L50" t="s">
+      <c r="P50" t="s">
         <v>97</v>
-      </c>
-      <c r="N50" t="s">
-        <v>98</v>
-      </c>
-      <c r="P50" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="50" t="s">
+      <c r="K51" t="s">
+        <v>73</v>
+      </c>
+      <c r="L51" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="I51" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J51" s="43" t="s">
+      <c r="M51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="K51" t="s">
-        <v>75</v>
-      </c>
-      <c r="L51" s="50" t="s">
+      <c r="O51" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="M51" t="s">
-        <v>81</v>
-      </c>
-      <c r="N51" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="O51" t="s">
-        <v>100</v>
-      </c>
-      <c r="P51" s="68" t="s">
-        <v>159</v>
-      </c>
       <c r="Q51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2092,7 +2081,7 @@
     <row r="54" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="49"/>
       <c r="D54" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P54" s="69"/>
       <c r="Q54" s="49"/>
@@ -2116,63 +2105,63 @@
     <row r="56" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="49"/>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F56" s="91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" s="92"/>
       <c r="H56" s="93"/>
       <c r="I56" s="91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J56" s="92"/>
       <c r="K56" s="93"/>
       <c r="L56" s="91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M56" s="92"/>
       <c r="N56" s="93"/>
       <c r="O56" s="91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P56" s="92"/>
       <c r="Q56" s="93"/>
       <c r="R56" s="94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S56" s="95"/>
       <c r="T56" s="96"/>
       <c r="U56" s="91" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V56" s="92"/>
       <c r="W56" s="93"/>
       <c r="X56" s="91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y56" s="92"/>
       <c r="Z56" s="93"/>
       <c r="AA56" s="91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AB56" s="92"/>
       <c r="AC56" s="93"/>
       <c r="AD56" s="91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE56" s="92"/>
       <c r="AF56" s="93"/>
       <c r="AG56" s="91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH56" s="92"/>
       <c r="AI56" s="93"/>
       <c r="AJ56" s="91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AK56" s="92"/>
       <c r="AL56" s="93"/>
@@ -2180,80 +2169,80 @@
     <row r="57" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="49"/>
       <c r="F57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H57" s="71"/>
       <c r="I57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K57" s="71"/>
       <c r="L57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N57" s="71"/>
       <c r="O57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q57" s="71"/>
       <c r="R57" s="72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S57" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T57" s="74"/>
       <c r="U57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W57" s="71"/>
       <c r="X57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Z57" s="71"/>
       <c r="AA57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AB57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AC57" s="71"/>
       <c r="AD57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF57" s="71"/>
       <c r="AG57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI57" s="71"/>
       <c r="AJ57" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AK57" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL57" s="75"/>
     </row>
@@ -2264,17 +2253,17 @@
       <c r="F58" s="76"/>
       <c r="G58" s="34"/>
       <c r="H58" s="60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I58" s="76"/>
       <c r="J58" s="34"/>
       <c r="K58" s="60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L58" s="76"/>
       <c r="M58" s="34"/>
       <c r="N58" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O58" s="76"/>
       <c r="P58" s="34"/>
@@ -2289,32 +2278,32 @@
       <c r="U58" s="76"/>
       <c r="V58" s="34"/>
       <c r="W58" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X58" s="76"/>
       <c r="Y58" s="34"/>
       <c r="Z58" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA58" s="59"/>
       <c r="AB58" s="43"/>
       <c r="AC58" s="60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AD58" s="76"/>
       <c r="AE58" s="34"/>
       <c r="AF58" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AG58" s="76"/>
       <c r="AH58" s="34"/>
       <c r="AI58" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AJ58" s="79"/>
       <c r="AK58" s="80"/>
       <c r="AL58" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,7 +2327,7 @@
     <row r="62" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="81"/>
       <c r="D62" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V62" s="81"/>
       <c r="W62" s="81"/>
@@ -2346,41 +2335,41 @@
     <row r="63" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D64" s="82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F64" s="56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G64" s="57"/>
       <c r="H64" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I64" s="83"/>
     </row>
     <row r="65" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" s="48"/>
       <c r="G65" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H65" s="48"/>
       <c r="I65" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F66" s="48"/>
       <c r="G66" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H66" s="48"/>
       <c r="I66" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2394,7 +2383,7 @@
     </row>
     <row r="68" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="60"/>
@@ -2404,45 +2393,45 @@
     <row r="69" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="81"/>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H69" s="48"/>
       <c r="I69" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V69" s="81"/>
       <c r="W69" s="81"/>
     </row>
     <row r="70" spans="1:23" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="90" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E70" s="90"/>
       <c r="F70" s="48"/>
       <c r="G70" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H70" s="48"/>
       <c r="I70" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E71" s="90"/>
       <c r="F71" s="59"/>
       <c r="G71" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H71" s="59"/>
       <c r="I71" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2453,29 +2442,29 @@
     </row>
     <row r="73" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F73" s="59"/>
       <c r="G73" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H73" s="59"/>
       <c r="I73" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="69"/>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F74" s="59"/>
       <c r="G74" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H74" s="59"/>
       <c r="I74" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V74" s="69"/>
       <c r="W74" s="69"/>
@@ -2488,35 +2477,35 @@
     </row>
     <row r="76" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D76" s="90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E76" s="90"/>
       <c r="F76" s="52"/>
       <c r="G76" s="64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="7"/>
       <c r="F80" s="97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G80" s="98"/>
       <c r="H80" s="98"/>
       <c r="I80" s="99"/>
       <c r="J80" s="97" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K80" s="98"/>
       <c r="L80" s="98"/>
@@ -2524,17 +2513,17 @@
     </row>
     <row r="81" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" s="62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I81" s="60"/>
       <c r="J81" s="62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M81" s="60"/>
     </row>
@@ -2544,19 +2533,19 @@
       </c>
       <c r="F82" s="84"/>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H82" s="85"/>
       <c r="I82" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J82" s="84"/>
       <c r="K82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L82" s="85"/>
       <c r="M82" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,19 +2554,19 @@
       </c>
       <c r="F83" s="84"/>
       <c r="G83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H83" s="85"/>
       <c r="I83" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J83" s="84"/>
       <c r="K83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L83" s="85"/>
       <c r="M83" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2586,19 +2575,19 @@
       </c>
       <c r="F84" s="84"/>
       <c r="G84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H84" s="85"/>
       <c r="I84" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J84" s="84"/>
       <c r="K84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L84" s="85"/>
       <c r="M84" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,19 +2596,19 @@
       </c>
       <c r="F85" s="84"/>
       <c r="G85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H85" s="85"/>
       <c r="I85" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J85" s="84"/>
       <c r="K85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L85" s="85"/>
       <c r="M85" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P85" s="69"/>
     </row>
@@ -2629,19 +2618,19 @@
       </c>
       <c r="F86" s="84"/>
       <c r="G86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H86" s="85"/>
       <c r="I86" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J86" s="84"/>
       <c r="K86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L86" s="85"/>
       <c r="M86" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O86" s="41"/>
       <c r="P86" s="49"/>
@@ -2653,19 +2642,19 @@
       </c>
       <c r="F87" s="86"/>
       <c r="G87" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H87" s="87"/>
       <c r="I87" s="64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J87" s="86"/>
       <c r="K87" s="67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L87" s="87"/>
       <c r="M87" s="64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O87" s="41"/>
       <c r="P87" s="49"/>
@@ -2693,39 +2682,39 @@
     <row r="90" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="38"/>
       <c r="D90" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P90" s="49"/>
     </row>
     <row r="91" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="38"/>
       <c r="F91" s="56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G91" s="57"/>
       <c r="H91" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I91" s="57"/>
       <c r="P91" s="49"/>
     </row>
     <row r="92" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F92" s="48"/>
       <c r="G92" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H92" s="48"/>
       <c r="I92" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P92" s="49"/>
     </row>
     <row r="93" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="60" t="s">
@@ -2745,15 +2734,15 @@
     <row r="94" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="69"/>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H94" s="48"/>
       <c r="I94" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P94" s="49"/>
       <c r="Q94" s="49"/>
@@ -2777,15 +2766,15 @@
       <c r="A96" s="69"/>
       <c r="C96" s="38"/>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F96" s="48"/>
       <c r="G96" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H96" s="48"/>
       <c r="I96" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q96" s="49"/>
       <c r="R96" s="49"/>
@@ -2810,15 +2799,15 @@
     <row r="98" spans="3:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="38"/>
       <c r="D98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F98" s="59"/>
       <c r="G98" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H98" s="59"/>
       <c r="I98" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P98" s="49"/>
     </row>
@@ -2836,7 +2825,7 @@
     </row>
     <row r="101" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F101" s="62"/>
       <c r="G101" s="60"/>
@@ -2845,38 +2834,38 @@
     </row>
     <row r="102" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F102" s="70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G102" s="60"/>
       <c r="H102" s="70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I102" s="60"/>
     </row>
     <row r="103" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F103" s="48"/>
       <c r="G103" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H103" s="48"/>
       <c r="I103" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F104" s="48"/>
       <c r="G104" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H104" s="48"/>
       <c r="I104" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2887,16 +2876,16 @@
     </row>
     <row r="106" spans="3:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D106" s="90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E106" s="90"/>
       <c r="F106" s="63"/>
       <c r="G106" s="64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H106" s="63"/>
       <c r="I106" s="64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A928DE9D-BBD5-1F48-B614-D014796D05A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{FF0A019B-76D1-C249-8FFC-A35F3BF3DA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,28 +521,28 @@
     <t>[Summary.Project Duration Yearly]</t>
   </si>
   <si>
-    <t>[Market.Nominal WACC]</t>
-  </si>
-  <si>
-    <t>[Market.Inflation Rate]</t>
-  </si>
-  <si>
-    <t>[Market.Real WACC]</t>
-  </si>
-  <si>
-    <t>[Market.Average Cost of Energy to Charge System]</t>
-  </si>
-  <si>
-    <t>[Market.Skilled Labor + load]</t>
-  </si>
-  <si>
-    <t>[Market.Unskilled Labor + load]</t>
-  </si>
-  <si>
     <t>[Summary.Debt]</t>
   </si>
   <si>
     <t>[Summary.Equity]</t>
+  </si>
+  <si>
+    <t>FOR:[Market.Nominal WACC]</t>
+  </si>
+  <si>
+    <t>FOR:[Market.Inflation Rate]</t>
+  </si>
+  <si>
+    <t>FOR:[Market.Real WACC]</t>
+  </si>
+  <si>
+    <t>FOR:[Market.Average Cost of Energy to Charge System]</t>
+  </si>
+  <si>
+    <t>FOR:[Market.Skilled Labor + load]</t>
+  </si>
+  <si>
+    <t>FOR:[Market.Unskilled Labor + load]</t>
   </si>
 </sst>
 </file>
@@ -1510,8 +1510,8 @@
   </sheetPr>
   <dimension ref="A1:AL155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1962,13 +1962,13 @@
         <v>89</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G47" s="67" t="s">
         <v>73</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I47" s="64" t="s">
         <v>73</v>
@@ -2020,37 +2020,37 @@
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>73</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s">
         <v>73</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M51" t="s">
         <v>79</v>
       </c>
       <c r="N51" s="68" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O51" t="s">
         <v>98</v>
       </c>
       <c r="P51" s="68" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q51" t="s">
         <v>98</v>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{FF0A019B-76D1-C249-8FFC-A35F3BF3DA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0F8A4D6D-DC1D-C840-95E6-13AFD4CA6574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1510,8 +1510,8 @@
   </sheetPr>
   <dimension ref="A1:AL155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2973,7 +2973,9 @@
   </sheetPr>
   <dimension ref="C1:X94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3004,169 +3006,51 @@
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11">
-        <v>2026</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" ref="F6:X6" si="0">E6+1</f>
-        <v>2027</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="M6" s="12">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="N6" s="12">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="O6" s="12">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="P6" s="12">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="Q6" s="12">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="S6" s="12">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="T6" s="12">
-        <f t="shared" si="0"/>
-        <v>2041</v>
-      </c>
-      <c r="U6" s="12">
-        <f t="shared" si="0"/>
-        <v>2042</v>
-      </c>
-      <c r="V6" s="12">
-        <f t="shared" si="0"/>
-        <v>2043</v>
-      </c>
-      <c r="W6" s="12">
-        <f t="shared" si="0"/>
-        <v>2044</v>
-      </c>
-      <c r="X6" s="13">
-        <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" ref="F7:X7" si="1">E7+1</f>
-        <v>2</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H7" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I7" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M7" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="N7" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O7" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="P7" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="R7" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="S7" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="T7" s="15">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="U7" s="15">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="V7" s="15">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="W7" s="15">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="X7" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="17"/>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0F8A4D6D-DC1D-C840-95E6-13AFD4CA6574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{714DAF8A-E5EB-414A-9860-8250BFE35D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="161">
   <si>
     <t xml:space="preserve">Levelized Cost of Stablized Electricity </t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>FOR:[Market.Unskilled Labor + load]</t>
+  </si>
+  <si>
+    <t>[Constants.Dimensions.Length]</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1514,7 @@
   <dimension ref="A1:AL155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1622,6 +1625,9 @@
       </c>
       <c r="F9" s="34" t="s">
         <v>146</v>
+      </c>
+      <c r="J9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2973,7 +2979,7 @@
   </sheetPr>
   <dimension ref="C1:X94"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{714DAF8A-E5EB-414A-9860-8250BFE35D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{048754E6-59A6-504D-A032-C829980A8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
     <t>FOR:[Market.Unskilled Labor + load]</t>
   </si>
   <si>
-    <t>[Constants.Dimensions.Length]</t>
+    <t>[Casing.Height|LFP]</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:AL155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1626,9 +1626,6 @@
       <c r="F9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J9" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="38" t="s">
@@ -1639,6 +1636,9 @@
       </c>
       <c r="G10" s="38" t="s">
         <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{048754E6-59A6-504D-A032-C829980A8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0EB3BFD8-0BF2-2547-A2F7-8606C1A4B2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="176">
   <si>
     <t xml:space="preserve">Levelized Cost of Stablized Electricity </t>
   </si>
@@ -368,9 +368,6 @@
     <t>Cycle Life</t>
   </si>
   <si>
-    <t>Cell Energy Density</t>
-  </si>
-  <si>
     <t>Pack Service Life</t>
   </si>
   <si>
@@ -545,7 +542,55 @@
     <t>FOR:[Market.Unskilled Labor + load]</t>
   </si>
   <si>
-    <t>[Casing.Height|LFP]</t>
+    <t>Cell Energy Density (gravimetric)</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Energy Density (gravimetric)|LFP]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Cycle Life|LFP]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Nominal Discharge Rate|LFP]</t>
+  </si>
+  <si>
+    <t>FOR:[BatteryPack.Max Service Life|LFP]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Charge Rate|LFP]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Factory Cost|LFP]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Material Cost|LFP]</t>
+  </si>
+  <si>
+    <t>[Constants.AZA.Maximum DOD]</t>
+  </si>
+  <si>
+    <t>[Constants.LFP.Maximum DOD]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Cycle Life|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Energy Density (gravimetric)|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[BatteryPack.Max Service Life|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Nominal Discharge Rate|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Charge Rate|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Material Cost|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[Cell.Factory Cost|AZA]</t>
   </si>
 </sst>
 </file>
@@ -909,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1136,9 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1513,8 +1555,8 @@
   </sheetPr>
   <dimension ref="A1:AL155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="I48" workbookViewId="0">
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1604,7 +1646,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1613,7 +1655,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>52</v>
@@ -1624,7 +1666,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1632,13 +1674,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1646,7 +1685,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -1658,7 +1697,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1670,7 +1709,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>60</v>
@@ -1683,7 +1722,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>60</v>
@@ -1697,7 +1736,7 @@
         <v>63</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>64</v>
@@ -1705,7 +1744,7 @@
     </row>
     <row r="17" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>65</v>
@@ -1716,7 +1755,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" s="38"/>
     </row>
@@ -1725,7 +1764,7 @@
         <v>67</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1783,11 +1822,15 @@
       <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="52" t="s">
+        <v>167</v>
+      </c>
       <c r="G26" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="54"/>
+      <c r="H26" s="52" t="s">
+        <v>168</v>
+      </c>
       <c r="I26" s="55" t="s">
         <v>73</v>
       </c>
@@ -1850,8 +1893,8 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="59"/>
       <c r="G35" s="60" t="s">
         <v>79</v>
@@ -1862,10 +1905,10 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="90"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="59"/>
       <c r="G36" s="60" t="s">
         <v>79</v>
@@ -1885,10 +1928,10 @@
     </row>
     <row r="38" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="41"/>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="90"/>
+      <c r="E38" s="89"/>
       <c r="F38" s="59"/>
       <c r="G38" s="60" t="s">
         <v>82</v>
@@ -1968,13 +2011,13 @@
         <v>89</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G47" s="67" t="s">
         <v>73</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I47" s="64" t="s">
         <v>73</v>
@@ -2026,37 +2069,37 @@
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G51" t="s">
         <v>73</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>73</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s">
         <v>73</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s">
         <v>79</v>
       </c>
       <c r="N51" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" t="s">
         <v>98</v>
       </c>
       <c r="P51" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q51" t="s">
         <v>98</v>
@@ -2116,139 +2159,139 @@
       <c r="E56" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="91" t="s">
+      <c r="F56" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G56" s="92"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="91" t="s">
+      <c r="G56" s="91"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56" s="91"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="92"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="91" t="s">
+      <c r="M56" s="91"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="M56" s="92"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="91" t="s">
+      <c r="P56" s="91"/>
+      <c r="Q56" s="92"/>
+      <c r="R56" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="P56" s="92"/>
-      <c r="Q56" s="93"/>
-      <c r="R56" s="94" t="s">
+      <c r="S56" s="94"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="S56" s="95"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="91" t="s">
+      <c r="V56" s="91"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="V56" s="92"/>
-      <c r="W56" s="93"/>
-      <c r="X56" s="91" t="s">
+      <c r="Y56" s="91"/>
+      <c r="Z56" s="92"/>
+      <c r="AA56" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="Y56" s="92"/>
-      <c r="Z56" s="93"/>
-      <c r="AA56" s="91" t="s">
+      <c r="AB56" s="91"/>
+      <c r="AC56" s="92"/>
+      <c r="AD56" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="AB56" s="92"/>
-      <c r="AC56" s="93"/>
-      <c r="AD56" s="91" t="s">
+      <c r="AE56" s="91"/>
+      <c r="AF56" s="92"/>
+      <c r="AG56" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="AE56" s="92"/>
-      <c r="AF56" s="93"/>
-      <c r="AG56" s="91" t="s">
+      <c r="AH56" s="91"/>
+      <c r="AI56" s="92"/>
+      <c r="AJ56" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="AH56" s="92"/>
-      <c r="AI56" s="93"/>
-      <c r="AJ56" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK56" s="92"/>
-      <c r="AL56" s="93"/>
+      <c r="AK56" s="91"/>
+      <c r="AL56" s="92"/>
     </row>
     <row r="57" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="49"/>
       <c r="F57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="H57" s="71"/>
       <c r="I57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="J57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="K57" s="71"/>
       <c r="L57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="M57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="N57" s="71"/>
       <c r="O57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="P57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="P57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="Q57" s="71"/>
       <c r="R57" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="S57" s="73" t="s">
         <v>111</v>
-      </c>
-      <c r="S57" s="73" t="s">
-        <v>112</v>
       </c>
       <c r="T57" s="74"/>
       <c r="U57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="V57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="V57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="W57" s="71"/>
       <c r="X57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="Y57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="Z57" s="71"/>
       <c r="AA57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="AB57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="AC57" s="71"/>
       <c r="AD57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="AE57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="AF57" s="71"/>
       <c r="AG57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="AH57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="AI57" s="71"/>
       <c r="AJ57" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK57" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="AK57" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="AL57" s="75"/>
     </row>
@@ -2256,45 +2299,73 @@
       <c r="A58" s="49"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="34"/>
+      <c r="F58" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>161</v>
+      </c>
       <c r="H58" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="I58" s="76"/>
-      <c r="J58" s="34"/>
+        <v>112</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>160</v>
+      </c>
       <c r="K58" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="L58" s="76"/>
-      <c r="M58" s="34"/>
+      <c r="L58" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="N58" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="O58" s="76"/>
-      <c r="P58" s="34"/>
+      <c r="O58" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="P58" s="34" t="s">
+        <v>162</v>
+      </c>
       <c r="Q58" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="R58" s="77"/>
-      <c r="S58" s="78"/>
+      <c r="R58" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="S58" s="77" t="s">
+        <v>164</v>
+      </c>
       <c r="T58" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="U58" s="76"/>
-      <c r="V58" s="34"/>
+      <c r="U58" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="V58" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="W58" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="X58" s="76"/>
-      <c r="Y58" s="34"/>
+      <c r="X58" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y58" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="Z58" s="60" t="s">
         <v>79</v>
       </c>
       <c r="AA58" s="59"/>
       <c r="AB58" s="43"/>
       <c r="AC58" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD58" s="76"/>
       <c r="AE58" s="34"/>
@@ -2306,8 +2377,8 @@
       <c r="AI58" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="AJ58" s="79"/>
-      <c r="AK58" s="80"/>
+      <c r="AJ58" s="78"/>
+      <c r="AK58" s="79"/>
       <c r="AL58" s="51" t="s">
         <v>79</v>
       </c>
@@ -2331,17 +2402,17 @@
       <c r="W61" s="69"/>
     </row>
     <row r="62" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="81"/>
+      <c r="A62" s="80"/>
       <c r="D62" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="V62" s="81"/>
-      <c r="W62" s="81"/>
+        <v>114</v>
+      </c>
+      <c r="V62" s="80"/>
+      <c r="W62" s="80"/>
     </row>
     <row r="63" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="82" t="s">
-        <v>116</v>
+      <c r="D64" s="81" t="s">
+        <v>115</v>
       </c>
       <c r="F64" s="56" t="s">
         <v>68</v>
@@ -2350,11 +2421,11 @@
       <c r="H64" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="83"/>
+      <c r="I64" s="82"/>
     </row>
     <row r="65" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F65" s="48"/>
       <c r="G65" s="60" t="s">
@@ -2367,7 +2438,7 @@
     </row>
     <row r="66" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="48"/>
       <c r="G66" s="60" t="s">
@@ -2388,8 +2459,8 @@
       <c r="W67" s="69"/>
     </row>
     <row r="68" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="82" t="s">
-        <v>119</v>
+      <c r="D68" s="81" t="s">
+        <v>118</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="60"/>
@@ -2397,9 +2468,9 @@
       <c r="I68" s="60"/>
     </row>
     <row r="69" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="81"/>
+      <c r="A69" s="80"/>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="60" t="s">
@@ -2409,14 +2480,14 @@
       <c r="I69" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="V69" s="81"/>
-      <c r="W69" s="81"/>
+      <c r="V69" s="80"/>
+      <c r="W69" s="80"/>
     </row>
     <row r="70" spans="1:23" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="90"/>
+      <c r="D70" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="89"/>
       <c r="F70" s="48"/>
       <c r="G70" s="60" t="s">
         <v>73</v>
@@ -2427,10 +2498,10 @@
       </c>
     </row>
     <row r="71" spans="1:23" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="E71" s="90"/>
+      <c r="D71" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="89"/>
       <c r="F71" s="59"/>
       <c r="G71" s="60" t="s">
         <v>73</v>
@@ -2448,7 +2519,7 @@
     </row>
     <row r="73" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F73" s="59"/>
       <c r="G73" s="60" t="s">
@@ -2462,7 +2533,7 @@
     <row r="74" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="69"/>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F74" s="59"/>
       <c r="G74" s="60" t="s">
@@ -2482,10 +2553,10 @@
       <c r="I75" s="60"/>
     </row>
     <row r="76" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" s="90"/>
+      <c r="D76" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="89"/>
       <c r="F76" s="52"/>
       <c r="G76" s="64" t="s">
         <v>73</v>
@@ -2499,37 +2570,37 @@
     <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="7"/>
-      <c r="F80" s="97" t="s">
+      <c r="F80" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="97" t="s">
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="98"/>
+      <c r="J80" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="K80" s="98"/>
-      <c r="L80" s="98"/>
-      <c r="M80" s="99"/>
+      <c r="K80" s="97"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="98"/>
     </row>
     <row r="81" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" t="s">
         <v>127</v>
-      </c>
-      <c r="H81" t="s">
-        <v>128</v>
       </c>
       <c r="I81" s="60"/>
       <c r="J81" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="L81" t="s">
         <v>127</v>
-      </c>
-      <c r="L81" t="s">
-        <v>128</v>
       </c>
       <c r="M81" s="60"/>
     </row>
@@ -2537,19 +2608,19 @@
       <c r="D82" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="84"/>
+      <c r="F82" s="83"/>
       <c r="G82" t="s">
         <v>64</v>
       </c>
-      <c r="H82" s="85"/>
+      <c r="H82" s="84"/>
       <c r="I82" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J82" s="84"/>
+      <c r="J82" s="83"/>
       <c r="K82" t="s">
         <v>64</v>
       </c>
-      <c r="L82" s="85"/>
+      <c r="L82" s="84"/>
       <c r="M82" s="60" t="s">
         <v>76</v>
       </c>
@@ -2558,19 +2629,19 @@
       <c r="D83" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="84"/>
+      <c r="F83" s="83"/>
       <c r="G83" t="s">
         <v>64</v>
       </c>
-      <c r="H83" s="85"/>
+      <c r="H83" s="84"/>
       <c r="I83" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J83" s="84"/>
+      <c r="J83" s="83"/>
       <c r="K83" t="s">
         <v>64</v>
       </c>
-      <c r="L83" s="85"/>
+      <c r="L83" s="84"/>
       <c r="M83" s="60" t="s">
         <v>76</v>
       </c>
@@ -2579,19 +2650,19 @@
       <c r="D84" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="84"/>
+      <c r="F84" s="83"/>
       <c r="G84" t="s">
         <v>64</v>
       </c>
-      <c r="H84" s="85"/>
+      <c r="H84" s="84"/>
       <c r="I84" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J84" s="84"/>
+      <c r="J84" s="83"/>
       <c r="K84" t="s">
         <v>64</v>
       </c>
-      <c r="L84" s="85"/>
+      <c r="L84" s="84"/>
       <c r="M84" s="60" t="s">
         <v>76</v>
       </c>
@@ -2600,19 +2671,19 @@
       <c r="D85" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="84"/>
+      <c r="F85" s="83"/>
       <c r="G85" t="s">
         <v>64</v>
       </c>
-      <c r="H85" s="85"/>
+      <c r="H85" s="84"/>
       <c r="I85" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J85" s="84"/>
+      <c r="J85" s="83"/>
       <c r="K85" t="s">
         <v>64</v>
       </c>
-      <c r="L85" s="85"/>
+      <c r="L85" s="84"/>
       <c r="M85" s="60" t="s">
         <v>76</v>
       </c>
@@ -2622,19 +2693,19 @@
       <c r="D86" t="s">
         <v>21</v>
       </c>
-      <c r="F86" s="84"/>
+      <c r="F86" s="83"/>
       <c r="G86" t="s">
         <v>64</v>
       </c>
-      <c r="H86" s="85"/>
+      <c r="H86" s="84"/>
       <c r="I86" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J86" s="84"/>
+      <c r="J86" s="83"/>
       <c r="K86" t="s">
         <v>64</v>
       </c>
-      <c r="L86" s="85"/>
+      <c r="L86" s="84"/>
       <c r="M86" s="60" t="s">
         <v>76</v>
       </c>
@@ -2646,19 +2717,19 @@
       <c r="D87" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="86"/>
+      <c r="F87" s="85"/>
       <c r="G87" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H87" s="87"/>
+      <c r="H87" s="86"/>
       <c r="I87" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="J87" s="86"/>
+      <c r="J87" s="85"/>
       <c r="K87" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="L87" s="87"/>
+      <c r="L87" s="86"/>
       <c r="M87" s="64" t="s">
         <v>76</v>
       </c>
@@ -2688,7 +2759,7 @@
     <row r="90" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="38"/>
       <c r="D90" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P90" s="49"/>
     </row>
@@ -2706,21 +2777,21 @@
     </row>
     <row r="92" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F92" s="48"/>
       <c r="G92" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H92" s="48"/>
       <c r="I92" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P92" s="49"/>
     </row>
     <row r="93" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="60" t="s">
@@ -2740,7 +2811,7 @@
     <row r="94" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="69"/>
       <c r="D94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="60" t="s">
@@ -2761,10 +2832,10 @@
     </row>
     <row r="95" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="69"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="89"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="89"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="88"/>
       <c r="V95" s="69"/>
       <c r="W95" s="69"/>
     </row>
@@ -2772,7 +2843,7 @@
       <c r="A96" s="69"/>
       <c r="C96" s="38"/>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F96" s="48"/>
       <c r="G96" s="60" t="s">
@@ -2805,7 +2876,7 @@
     <row r="98" spans="3:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="38"/>
       <c r="D98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F98" s="59"/>
       <c r="G98" s="60" t="s">
@@ -2831,7 +2902,7 @@
     </row>
     <row r="101" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F101" s="62"/>
       <c r="G101" s="60"/>
@@ -2850,7 +2921,7 @@
     </row>
     <row r="103" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F103" s="48"/>
       <c r="G103" s="60" t="s">
@@ -2863,7 +2934,7 @@
     </row>
     <row r="104" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F104" s="48"/>
       <c r="G104" s="60" t="s">
@@ -2881,10 +2952,10 @@
       <c r="I105" s="60"/>
     </row>
     <row r="106" spans="3:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="E106" s="90"/>
+      <c r="D106" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="89"/>
       <c r="F106" s="63"/>
       <c r="G106" s="64" t="s">
         <v>76</v>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0EB3BFD8-0BF2-2547-A2F7-8606C1A4B2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7D6CD-BB52-3947-BED1-BD0DC7B9A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="25180" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2820" windowWidth="31440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stand Alone Storage Output" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <definedName name="systemlosses">'LCOSE draft formula'!$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="212">
   <si>
     <t xml:space="preserve">Levelized Cost of Stablized Electricity </t>
   </si>
@@ -267,9 +266,6 @@
   </si>
   <si>
     <t>Actual Load Year 1</t>
-  </si>
-  <si>
-    <t>Load Capacity Degredation per Annum</t>
   </si>
   <si>
     <t>%</t>
@@ -503,9 +499,6 @@
     <t>[Summary.Battery Capacity Degredation per Annum]</t>
   </si>
   <si>
-    <t>[Summary.Nameplate Load]</t>
-  </si>
-  <si>
     <t>[Summary.Project MWh delivered]</t>
   </si>
   <si>
@@ -536,12 +529,6 @@
     <t>FOR:[Market.Average Cost of Energy to Charge System]</t>
   </si>
   <si>
-    <t>FOR:[Market.Skilled Labor + load]</t>
-  </si>
-  <si>
-    <t>FOR:[Market.Unskilled Labor + load]</t>
-  </si>
-  <si>
     <t>Cell Energy Density (gravimetric)</t>
   </si>
   <si>
@@ -591,6 +578,146 @@
   </si>
   <si>
     <t>FOR:[Cell.Factory Cost|AZA]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.RTE|AZA]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.RTE|LFP]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Battery Losses|AZA]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Battery Losses|LFP]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Power Electronic Losses|AZA]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Power Electronic Losses|LFP]</t>
+  </si>
+  <si>
+    <r>
+      <t>[BatteryPack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thermal Ventilation losses|AZA]</t>
+    </r>
+  </si>
+  <si>
+    <t>[BatteryPack.Thermal Ventilation losses|LFP]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Control Monitoring Losses|AZA]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Control Monitoring Losses|LFP]</t>
+  </si>
+  <si>
+    <t>[System.Insurance|AZA]</t>
+  </si>
+  <si>
+    <t>[System.Insurance|LFP]</t>
+  </si>
+  <si>
+    <t>Load Capacity Degredation</t>
+  </si>
+  <si>
+    <t>[Constants.AZA.Actual Load Year]</t>
+  </si>
+  <si>
+    <t>[Constants.AZA.Load Capacity Degradation]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Thermal Ventilation location|AZA]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Thermal Ventilation location|LFP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t>[System.CAPEX|AZA]</t>
+  </si>
+  <si>
+    <t>[System.CAPEX|LFP]</t>
+  </si>
+  <si>
+    <t>[System.OPEX|AZA]</t>
+  </si>
+  <si>
+    <t>[System.OPEX|LFP]</t>
+  </si>
+  <si>
+    <t>[System.TCO|AZA]</t>
+  </si>
+  <si>
+    <t>[System.TCO|LFP]</t>
+  </si>
+  <si>
+    <t>[System.LCOSE|AZA]</t>
+  </si>
+  <si>
+    <t>[System.LCOSE|LFP]</t>
+  </si>
+  <si>
+    <t>FOR:[System.Skilled Labor + load|AZA]</t>
+  </si>
+  <si>
+    <t>FOR:[System.Unskilled Labor + load|AZA]</t>
+  </si>
+  <si>
+    <t>[System.Labor Cost|AZA]</t>
+  </si>
+  <si>
+    <t>[System.Labor Cost|LFP]</t>
+  </si>
+  <si>
+    <t>[System.HVAC Cost|AZA]</t>
+  </si>
+  <si>
+    <t>[System.HVAC Cost|LFP]</t>
+  </si>
+  <si>
+    <t>[System.Cabling Cost|AZA]</t>
+  </si>
+  <si>
+    <t>[System.Cabling Cost|LFP]</t>
+  </si>
+  <si>
+    <t>[System.Nameplate Load|AZA]</t>
+  </si>
+  <si>
+    <t>[System.Nameplate Load|LFP]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Daily self discharge percent of capacity|AZA]</t>
+  </si>
+  <si>
+    <t>[BatteryPack.Daily self discharge percent of capacity|LFP]</t>
+  </si>
+  <si>
+    <t>[System.System maintainance over project period|AZA]</t>
+  </si>
+  <si>
+    <t>[System.System maintainance over project period|LFP]</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1134,92 +1261,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,15 +1370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1553,10 +1677,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AL155"/>
+  <dimension ref="A1:AL153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I48" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1646,7 +1770,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1655,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>52</v>
@@ -1666,7 +1790,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1674,7 +1798,7 @@
         <v>54</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>55</v>
@@ -1685,7 +1809,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -1697,7 +1821,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,7 +1833,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>60</v>
@@ -1722,7 +1846,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>60</v>
@@ -1736,40 +1860,40 @@
         <v>63</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G18" s="38"/>
     </row>
-    <row r="19" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="4:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F22" s="44" t="s">
         <v>68</v>
       </c>
@@ -1779,71 +1903,87 @@
       </c>
       <c r="I22" s="47"/>
     </row>
-    <row r="23" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="48" t="s">
+        <v>206</v>
+      </c>
       <c r="G23" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="50" t="s">
+        <v>207</v>
+      </c>
       <c r="I23" s="51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="52" t="s">
+        <v>185</v>
+      </c>
       <c r="G24" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="52" t="s">
+        <v>185</v>
+      </c>
       <c r="I24" s="51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49" t="s">
+      <c r="H25" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
       <c r="F26" s="52" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G29" s="38"/>
     </row>
-    <row r="30" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G30" s="38"/>
     </row>
-    <row r="31" spans="4:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="56" t="s">
         <v>68</v>
       </c>
@@ -1853,261 +1993,282 @@
       </c>
       <c r="I31" s="58"/>
     </row>
-    <row r="32" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="59"/>
+      <c r="H32" s="59" t="s">
+        <v>191</v>
+      </c>
       <c r="I32" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="59"/>
+        <v>76</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>192</v>
+      </c>
       <c r="G33" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="59"/>
+        <v>75</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>193</v>
+      </c>
       <c r="I33" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="59"/>
+      <c r="H35" s="59" t="s">
+        <v>197</v>
+      </c>
       <c r="I35" s="60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="41"/>
+      <c r="D36" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="89"/>
+      <c r="E36" s="88"/>
       <c r="F36" s="59"/>
       <c r="G36" s="60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="61"/>
       <c r="G37" s="60"/>
-      <c r="H37" s="62"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="41"/>
-      <c r="D38" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="89"/>
+    <row r="38" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
       <c r="F38" s="59"/>
       <c r="G38" s="60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" s="59"/>
       <c r="I38" s="60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F39" s="62"/>
-      <c r="G39" s="60"/>
+      <c r="G39" s="63" t="s">
+        <v>84</v>
+      </c>
       <c r="H39" s="62"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="63" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="40" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="60" t="s">
-        <v>84</v>
-      </c>
+      <c r="B40" s="40"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="63"/>
-      <c r="G41" s="64" t="s">
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="63"/>
-      <c r="I41" s="64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="7"/>
       <c r="I43" s="38"/>
     </row>
     <row r="44" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="7"/>
+      <c r="F44" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="38"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="57"/>
     </row>
     <row r="45" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7"/>
-      <c r="I45" s="38"/>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="46" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7"/>
-      <c r="F46" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="I46" s="57"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="7"/>
-      <c r="D47" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="40"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="P47" s="41"/>
+    </row>
+    <row r="48" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="52" t="s">
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="38"/>
+      <c r="J48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L48" t="s">
+        <v>94</v>
+      </c>
+      <c r="N48" t="s">
+        <v>95</v>
+      </c>
+      <c r="P48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="54" t="s">
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="I47" s="64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="7"/>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="40"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="P49" s="41"/>
+      <c r="I49" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="K49" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="M49" t="s">
+        <v>78</v>
+      </c>
+      <c r="N49" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="O49" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="50" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="38"/>
-      <c r="J50" t="s">
-        <v>94</v>
-      </c>
-      <c r="L50" t="s">
-        <v>95</v>
-      </c>
-      <c r="N50" t="s">
-        <v>96</v>
-      </c>
-      <c r="P50" t="s">
-        <v>97</v>
-      </c>
+      <c r="A50" s="49"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
     </row>
     <row r="51" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="K51" t="s">
-        <v>73</v>
-      </c>
-      <c r="L51" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="M51" t="s">
-        <v>79</v>
-      </c>
-      <c r="N51" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="O51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P51" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>98</v>
-      </c>
+      <c r="A51" s="49"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
     </row>
     <row r="52" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="49"/>
-      <c r="P52" s="69"/>
+      <c r="D52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" s="68"/>
       <c r="Q52" s="49"/>
       <c r="R52" s="49"/>
       <c r="S52" s="49"/>
@@ -2118,7 +2279,6 @@
     </row>
     <row r="53" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="49"/>
-      <c r="P53" s="69"/>
       <c r="Q53" s="49"/>
       <c r="R53" s="49"/>
       <c r="S53" s="49"/>
@@ -2129,610 +2289,637 @@
     </row>
     <row r="54" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="49"/>
-      <c r="D54" s="7" t="s">
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="P54" s="69"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" s="93"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="M54" s="93"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="S54" s="96"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="V54" s="93"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="94"/>
+      <c r="AA54" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB54" s="93"/>
+      <c r="AC54" s="94"/>
+      <c r="AD54" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE54" s="93"/>
+      <c r="AF54" s="94"/>
+      <c r="AG54" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH54" s="93"/>
+      <c r="AI54" s="94"/>
+      <c r="AJ54" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK54" s="93"/>
+      <c r="AL54" s="94"/>
     </row>
     <row r="55" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
+      <c r="F55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" s="70"/>
+      <c r="I55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K55" s="70"/>
+      <c r="L55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="N55" s="70"/>
+      <c r="O55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="S55" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="T55" s="73"/>
+      <c r="U55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="V55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="W55" s="70"/>
+      <c r="X55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z55" s="70"/>
+      <c r="AA55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC55" s="70"/>
+      <c r="AD55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF55" s="70"/>
+      <c r="AG55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI55" s="70"/>
+      <c r="AJ55" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK55" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL55" s="74"/>
     </row>
     <row r="56" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="49"/>
-      <c r="D56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="91"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="90" t="s">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="M56" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="J56" s="91"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="M56" s="91"/>
-      <c r="N56" s="92"/>
-      <c r="O56" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="P56" s="91"/>
-      <c r="Q56" s="92"/>
-      <c r="R56" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="S56" s="94"/>
-      <c r="T56" s="95"/>
-      <c r="U56" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="V56" s="91"/>
-      <c r="W56" s="92"/>
-      <c r="X56" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y56" s="91"/>
-      <c r="Z56" s="92"/>
-      <c r="AA56" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB56" s="91"/>
-      <c r="AC56" s="92"/>
-      <c r="AD56" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE56" s="91"/>
-      <c r="AF56" s="92"/>
-      <c r="AG56" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH56" s="91"/>
-      <c r="AI56" s="92"/>
-      <c r="AJ56" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK56" s="91"/>
-      <c r="AL56" s="92"/>
+      <c r="N56" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="P56" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q56" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="R56" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="S56" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="T56" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="U56" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="V56" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="W56" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="X56" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y56" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z56" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="43"/>
+      <c r="AC56" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD56" s="75"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG56" s="75"/>
+      <c r="AH56" s="34"/>
+      <c r="AI56" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ56" s="77"/>
+      <c r="AK56" s="78"/>
+      <c r="AL56" s="51" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="57" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="49"/>
-      <c r="F57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H57" s="71"/>
-      <c r="I57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="J57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K57" s="71"/>
-      <c r="L57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="N57" s="71"/>
-      <c r="O57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="P57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="S57" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="T57" s="74"/>
-      <c r="U57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="V57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="W57" s="71"/>
-      <c r="X57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF57" s="71"/>
-      <c r="AG57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI57" s="71"/>
-      <c r="AJ57" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL57" s="75"/>
-    </row>
-    <row r="58" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="49"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I58" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="J58" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="K58" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="N58" s="60" t="s">
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+    </row>
+    <row r="58" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+    </row>
+    <row r="60" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79"/>
+      <c r="D60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+    </row>
+    <row r="61" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="57"/>
+      <c r="H62" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="81"/>
+    </row>
+    <row r="63" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="I64" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="68"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="60"/>
+      <c r="V65" s="68"/>
+      <c r="W65" s="68"/>
+    </row>
+    <row r="66" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="61"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="60"/>
+    </row>
+    <row r="67" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="79"/>
+      <c r="D67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="G67" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="V67" s="79"/>
+      <c r="W67" s="79"/>
+    </row>
+    <row r="68" spans="1:23" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="88"/>
+      <c r="F68" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I68" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D69" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="88"/>
+      <c r="F69" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="I69" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="61"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="60"/>
+    </row>
+    <row r="71" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="68"/>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="59"/>
+      <c r="G72" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="59"/>
+      <c r="I72" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="V72" s="68"/>
+      <c r="W72" s="68"/>
+    </row>
+    <row r="73" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="61"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="60"/>
+    </row>
+    <row r="74" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="88"/>
+      <c r="F74" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I74" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="7"/>
+      <c r="F78" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78" s="90"/>
+      <c r="L78" s="90"/>
+      <c r="M78" s="91"/>
+    </row>
+    <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" t="s">
+        <v>126</v>
+      </c>
+      <c r="I79" s="60"/>
+      <c r="J79" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="L79" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" s="60"/>
+    </row>
+    <row r="80" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="82"/>
+      <c r="G80" t="s">
         <v>64</v>
       </c>
-      <c r="O58" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="P58" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q58" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="R58" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="S58" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="T58" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="U58" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="V58" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="W58" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="X58" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y58" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z58" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA58" s="59"/>
-      <c r="AB58" s="43"/>
-      <c r="AC58" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD58" s="76"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG58" s="76"/>
-      <c r="AH58" s="34"/>
-      <c r="AI58" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ58" s="78"/>
-      <c r="AK58" s="79"/>
-      <c r="AL58" s="51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-    </row>
-    <row r="60" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="69"/>
-      <c r="V61" s="69"/>
-      <c r="W61" s="69"/>
-    </row>
-    <row r="62" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="80"/>
-      <c r="D62" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="V62" s="80"/>
-      <c r="W62" s="80"/>
-    </row>
-    <row r="63" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="57"/>
-      <c r="H64" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I64" s="82"/>
-    </row>
-    <row r="65" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="48"/>
-      <c r="G65" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H65" s="48"/>
-      <c r="I65" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H66" s="48"/>
-      <c r="I66" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="69"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="60"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-    </row>
-    <row r="68" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="60"/>
-    </row>
-    <row r="69" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="80"/>
-      <c r="D69" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="48"/>
-      <c r="G69" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="V69" s="80"/>
-      <c r="W69" s="80"/>
-    </row>
-    <row r="70" spans="1:23" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="89"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H70" s="48"/>
-      <c r="I70" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="89"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F72" s="62"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="60"/>
-    </row>
-    <row r="73" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H73" s="59"/>
-      <c r="I73" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="69"/>
-      <c r="D74" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74" s="59"/>
-      <c r="G74" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H74" s="59"/>
-      <c r="I74" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="V74" s="69"/>
-      <c r="W74" s="69"/>
-    </row>
-    <row r="75" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F75" s="62"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="60"/>
-    </row>
-    <row r="76" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="89"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="H76" s="52"/>
-      <c r="I76" s="64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D79" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="7"/>
-      <c r="F80" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="98"/>
-      <c r="J80" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="K80" s="97"/>
-      <c r="L80" s="97"/>
-      <c r="M80" s="98"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J80" s="82"/>
+      <c r="K80" t="s">
+        <v>64</v>
+      </c>
+      <c r="L80" s="83"/>
+      <c r="M80" s="60" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="81" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F81" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H81" t="s">
-        <v>127</v>
-      </c>
-      <c r="I81" s="60"/>
-      <c r="J81" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="L81" t="s">
-        <v>127</v>
-      </c>
-      <c r="M81" s="60"/>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="82"/>
+      <c r="G81" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="I81" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J81" s="82"/>
+      <c r="K81" t="s">
+        <v>64</v>
+      </c>
+      <c r="L81" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="M81" s="60" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="82" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="83"/>
+        <v>19</v>
+      </c>
+      <c r="F82" s="82"/>
       <c r="G82" t="s">
         <v>64</v>
       </c>
-      <c r="H82" s="84"/>
+      <c r="H82" s="83"/>
       <c r="I82" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="J82" s="83"/>
+        <v>75</v>
+      </c>
+      <c r="J82" s="82"/>
       <c r="K82" t="s">
         <v>64</v>
       </c>
-      <c r="L82" s="84"/>
+      <c r="L82" s="83"/>
       <c r="M82" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="83"/>
+        <v>20</v>
+      </c>
+      <c r="F83" s="82"/>
       <c r="G83" t="s">
         <v>64</v>
       </c>
-      <c r="H83" s="84"/>
+      <c r="H83" s="83" t="s">
+        <v>202</v>
+      </c>
       <c r="I83" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="J83" s="83"/>
+        <v>75</v>
+      </c>
+      <c r="J83" s="82"/>
       <c r="K83" t="s">
         <v>64</v>
       </c>
-      <c r="L83" s="84"/>
+      <c r="L83" s="83" t="s">
+        <v>203</v>
+      </c>
       <c r="M83" s="60" t="s">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P83" s="68"/>
     </row>
     <row r="84" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="83"/>
+        <v>21</v>
+      </c>
+      <c r="F84" s="82"/>
       <c r="G84" t="s">
         <v>64</v>
       </c>
-      <c r="H84" s="84"/>
+      <c r="H84" s="83"/>
       <c r="I84" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="J84" s="83"/>
+        <v>75</v>
+      </c>
+      <c r="J84" s="82"/>
       <c r="K84" t="s">
         <v>64</v>
       </c>
-      <c r="L84" s="84"/>
+      <c r="L84" s="83"/>
       <c r="M84" s="60" t="s">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="O84" s="41"/>
+      <c r="P84" s="49"/>
     </row>
     <row r="85" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="38"/>
       <c r="D85" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" s="83"/>
-      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="84"/>
+      <c r="G85" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H85" s="84"/>
-      <c r="I85" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="J85" s="83"/>
-      <c r="K85" t="s">
+      <c r="H85" s="85"/>
+      <c r="I85" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="J85" s="84"/>
+      <c r="K85" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="L85" s="84"/>
-      <c r="M85" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="P85" s="69"/>
+      <c r="L85" s="85"/>
+      <c r="M85" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="O85" s="41"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="49"/>
     </row>
     <row r="86" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="83"/>
-      <c r="G86" t="s">
-        <v>64</v>
-      </c>
-      <c r="H86" s="84"/>
-      <c r="I86" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="J86" s="83"/>
-      <c r="K86" t="s">
-        <v>64</v>
-      </c>
-      <c r="L86" s="84"/>
-      <c r="M86" s="60" t="s">
-        <v>76</v>
-      </c>
+      <c r="C86" s="38"/>
       <c r="O86" s="41"/>
       <c r="P86" s="49"/>
     </row>
     <row r="87" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="38"/>
-      <c r="D87" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="85"/>
-      <c r="G87" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="86"/>
-      <c r="I87" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="J87" s="85"/>
-      <c r="K87" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="L87" s="86"/>
-      <c r="M87" s="64" t="s">
-        <v>76</v>
-      </c>
       <c r="O87" s="41"/>
       <c r="P87" s="49"/>
       <c r="Q87" s="49"/>
@@ -2743,234 +2930,233 @@
     </row>
     <row r="88" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="38"/>
-      <c r="O88" s="41"/>
+      <c r="D88" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="P88" s="49"/>
     </row>
     <row r="89" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="38"/>
-      <c r="O89" s="41"/>
+      <c r="F89" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="57"/>
+      <c r="H89" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I89" s="57"/>
       <c r="P89" s="49"/>
-      <c r="Q89" s="49"/>
-      <c r="R89" s="49"/>
-      <c r="S89" s="49"/>
-      <c r="T89" s="49"/>
-      <c r="U89" s="49"/>
     </row>
     <row r="90" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="38"/>
-      <c r="D90" s="7" t="s">
+      <c r="D90" t="s">
         <v>128</v>
       </c>
+      <c r="F90" s="48"/>
+      <c r="G90" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H90" s="48"/>
+      <c r="I90" s="60" t="s">
+        <v>129</v>
+      </c>
       <c r="P90" s="49"/>
     </row>
     <row r="91" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="38"/>
-      <c r="F91" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" s="57"/>
-      <c r="H91" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I91" s="57"/>
+      <c r="D91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="48"/>
+      <c r="G91" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="48"/>
+      <c r="I91" s="60" t="s">
+        <v>55</v>
+      </c>
       <c r="P91" s="49"/>
+      <c r="Q91" s="49"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="49"/>
     </row>
     <row r="92" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="68"/>
       <c r="D92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F92" s="48"/>
       <c r="G92" s="60" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="H92" s="48"/>
       <c r="I92" s="60" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="68"/>
+      <c r="W92" s="68"/>
     </row>
     <row r="93" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D93" t="s">
-        <v>131</v>
-      </c>
-      <c r="F93" s="48"/>
-      <c r="G93" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="H93" s="48"/>
-      <c r="I93" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="49"/>
-      <c r="R93" s="49"/>
-      <c r="S93" s="49"/>
-      <c r="T93" s="49"/>
-      <c r="U93" s="49"/>
+      <c r="A93" s="68"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="87"/>
+      <c r="H93" s="86"/>
+      <c r="I93" s="87"/>
+      <c r="V93" s="68"/>
+      <c r="W93" s="68"/>
     </row>
     <row r="94" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="69"/>
+      <c r="A94" s="68"/>
+      <c r="C94" s="38"/>
       <c r="D94" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="48"/>
+      <c r="F94" s="48" t="s">
+        <v>210</v>
+      </c>
       <c r="G94" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H94" s="48"/>
+        <v>75</v>
+      </c>
+      <c r="H94" s="48" t="s">
+        <v>211</v>
+      </c>
       <c r="I94" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="P94" s="49"/>
+        <v>75</v>
+      </c>
       <c r="Q94" s="49"/>
       <c r="R94" s="49"/>
       <c r="S94" s="49"/>
       <c r="T94" s="49"/>
       <c r="U94" s="49"/>
-      <c r="V94" s="69"/>
-      <c r="W94" s="69"/>
+      <c r="V94" s="68"/>
+      <c r="W94" s="68"/>
     </row>
     <row r="95" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="69"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="88"/>
-      <c r="V95" s="69"/>
-      <c r="W95" s="69"/>
+      <c r="C95" s="38"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="60"/>
+      <c r="Q95" s="49"/>
+      <c r="R95" s="49"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="49"/>
     </row>
     <row r="96" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="69"/>
       <c r="C96" s="38"/>
       <c r="D96" t="s">
         <v>133</v>
       </c>
-      <c r="F96" s="48"/>
+      <c r="F96" s="59" t="s">
+        <v>182</v>
+      </c>
       <c r="G96" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H96" s="48"/>
+        <v>75</v>
+      </c>
+      <c r="H96" s="59" t="s">
+        <v>183</v>
+      </c>
       <c r="I96" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q96" s="49"/>
-      <c r="R96" s="49"/>
-      <c r="S96" s="49"/>
-      <c r="T96" s="49"/>
-      <c r="U96" s="49"/>
-      <c r="V96" s="69"/>
-      <c r="W96" s="69"/>
-    </row>
-    <row r="97" spans="3:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="38"/>
-      <c r="F97" s="62"/>
+        <v>75</v>
+      </c>
+      <c r="P96" s="49"/>
+    </row>
+    <row r="97" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="61"/>
       <c r="G97" s="60"/>
-      <c r="H97" s="62"/>
+      <c r="H97" s="61"/>
       <c r="I97" s="60"/>
-      <c r="Q97" s="49"/>
-      <c r="R97" s="49"/>
-      <c r="S97" s="49"/>
-      <c r="T97" s="49"/>
-      <c r="U97" s="49"/>
-    </row>
-    <row r="98" spans="3:21" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="38"/>
-      <c r="D98" t="s">
+    </row>
+    <row r="98" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="61"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="60"/>
+    </row>
+    <row r="99" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F98" s="59"/>
-      <c r="G98" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H98" s="59"/>
-      <c r="I98" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="P98" s="49"/>
-    </row>
-    <row r="99" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F99" s="62"/>
+      <c r="F99" s="61"/>
       <c r="G99" s="60"/>
-      <c r="H99" s="62"/>
+      <c r="H99" s="61"/>
       <c r="I99" s="60"/>
     </row>
-    <row r="100" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F100" s="62"/>
+    <row r="100" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="69" t="s">
+        <v>68</v>
+      </c>
       <c r="G100" s="60"/>
-      <c r="H100" s="62"/>
+      <c r="H100" s="69" t="s">
+        <v>69</v>
+      </c>
       <c r="I100" s="60"/>
     </row>
-    <row r="101" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="7" t="s">
+    <row r="101" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
         <v>135</v>
       </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="60"/>
-    </row>
-    <row r="102" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F102" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="I102" s="60"/>
-    </row>
-    <row r="103" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" t="s">
+      <c r="F101" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G101" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H101" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="I101" s="60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
         <v>136</v>
       </c>
-      <c r="F103" s="48"/>
-      <c r="G103" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H103" s="48"/>
-      <c r="I103" s="60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" t="s">
+      <c r="F102" s="48"/>
+      <c r="G102" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" s="48"/>
+      <c r="I102" s="60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="61"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="60"/>
+    </row>
+    <row r="104" spans="4:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D104" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="F104" s="48"/>
-      <c r="G104" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" s="48"/>
-      <c r="I104" s="60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F105" s="62"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="60"/>
-    </row>
-    <row r="106" spans="3:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="E106" s="89"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H106" s="63"/>
-      <c r="I106" s="64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" s="62"/>
+      <c r="I104" s="63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="4:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3011,33 +3197,30 @@
     <row r="150" spans="9:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="151" spans="9:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="9:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="9:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="9:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="9:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I155" s="49"/>
+    <row r="153" spans="9:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I153" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="AA56:AC56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AI56"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="X56:Z56"/>
+  <mergeCells count="19">
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AI54"/>
+    <mergeCell ref="AJ54:AL54"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3623,7 +3806,7 @@
   <dimension ref="C1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E7D6CD-BB52-3947-BED1-BD0DC7B9A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98332DEF-9DF7-5540-97E4-56502D4A855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2820" windowWidth="31440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="2160" windowWidth="31440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stand Alone Storage Output" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="210">
   <si>
     <t xml:space="preserve">Levelized Cost of Stablized Electricity </t>
   </si>
@@ -497,12 +497,6 @@
   </si>
   <si>
     <t>[Summary.Battery Capacity Degredation per Annum]</t>
-  </si>
-  <si>
-    <t>[Summary.Project MWh delivered]</t>
-  </si>
-  <si>
-    <t>[Summary.Annual MWh delivered]</t>
   </si>
   <si>
     <t>[Summary.Project Duration Monthly]</t>
@@ -1345,6 +1339,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1352,24 +1364,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1680,7 +1674,7 @@
   <dimension ref="A1:AL153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>52</v>
@@ -1860,7 +1854,7 @@
         <v>63</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>64</v>
@@ -1868,7 +1862,7 @@
     </row>
     <row r="17" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>65</v>
@@ -1878,18 +1872,14 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>146</v>
-      </c>
+      <c r="F18" s="43"/>
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>145</v>
-      </c>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1908,13 +1898,13 @@
         <v>70</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I23" s="51" t="s">
         <v>52</v>
@@ -1925,13 +1915,13 @@
         <v>71</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I24" s="51" t="s">
         <v>52</v>
@@ -1939,16 +1929,16 @@
     </row>
     <row r="25" spans="4:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="52" t="s">
         <v>184</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>186</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I25" s="51" t="s">
         <v>72</v>
@@ -1959,13 +1949,13 @@
         <v>73</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G26" s="53" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>72</v>
@@ -1973,7 +1963,7 @@
     </row>
     <row r="27" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1998,13 +1988,13 @@
         <v>74</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G32" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>75</v>
@@ -2015,13 +2005,13 @@
         <v>76</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G33" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I33" s="60" t="s">
         <v>75</v>
@@ -2032,13 +2022,13 @@
         <v>77</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G34" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I34" s="60" t="s">
         <v>75</v>
@@ -2050,13 +2040,13 @@
       </c>
       <c r="E35" s="88"/>
       <c r="F35" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G35" s="60" t="s">
         <v>78</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I35" s="60" t="s">
         <v>78</v>
@@ -2147,13 +2137,13 @@
         <v>88</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G45" s="66" t="s">
         <v>72</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I45" s="63" t="s">
         <v>72</v>
@@ -2205,37 +2195,37 @@
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
         <v>72</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>72</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s">
         <v>72</v>
       </c>
       <c r="L49" s="50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M49" t="s">
         <v>78</v>
       </c>
       <c r="N49" s="67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O49" t="s">
         <v>97</v>
       </c>
       <c r="P49" s="67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q49" t="s">
         <v>97</v>
@@ -2295,61 +2285,61 @@
       <c r="E54" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="92" t="s">
+      <c r="F54" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="93"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="J54" s="93"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="92" t="s">
+      <c r="G54" s="90"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="90"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="M54" s="93"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="92" t="s">
+      <c r="M54" s="90"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="95" t="s">
+      <c r="P54" s="90"/>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="S54" s="96"/>
-      <c r="T54" s="97"/>
-      <c r="U54" s="92" t="s">
+      <c r="S54" s="93"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="V54" s="93"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="92" t="s">
+      <c r="V54" s="90"/>
+      <c r="W54" s="91"/>
+      <c r="X54" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="Y54" s="93"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="92" t="s">
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="91"/>
+      <c r="AA54" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="AB54" s="93"/>
-      <c r="AC54" s="94"/>
-      <c r="AD54" s="92" t="s">
+      <c r="AB54" s="90"/>
+      <c r="AC54" s="91"/>
+      <c r="AD54" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="AE54" s="93"/>
-      <c r="AF54" s="94"/>
-      <c r="AG54" s="92" t="s">
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="91"/>
+      <c r="AG54" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="AH54" s="93"/>
-      <c r="AI54" s="94"/>
-      <c r="AJ54" s="92" t="s">
+      <c r="AH54" s="90"/>
+      <c r="AI54" s="91"/>
+      <c r="AJ54" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="AK54" s="93"/>
-      <c r="AL54" s="94"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="91"/>
     </row>
     <row r="55" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49"/>
@@ -2436,64 +2426,64 @@
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H56" s="60" t="s">
         <v>111</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K56" s="60" t="s">
         <v>83</v>
       </c>
       <c r="L56" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N56" s="60" t="s">
         <v>64</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P56" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q56" s="60" t="s">
         <v>55</v>
       </c>
       <c r="R56" s="76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S56" s="76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T56" s="73" t="s">
         <v>55</v>
       </c>
       <c r="U56" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V56" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W56" s="60" t="s">
         <v>78</v>
       </c>
       <c r="X56" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Y56" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Z56" s="60" t="s">
         <v>78</v>
@@ -2564,13 +2554,13 @@
         <v>115</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G63" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H63" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I63" s="60" t="s">
         <v>72</v>
@@ -2581,13 +2571,13 @@
         <v>116</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G64" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H64" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I64" s="60" t="s">
         <v>72</v>
@@ -2617,13 +2607,13 @@
         <v>118</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G67" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I67" s="60" t="s">
         <v>72</v>
@@ -2637,13 +2627,13 @@
       </c>
       <c r="E68" s="88"/>
       <c r="F68" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G68" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H68" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I68" s="60" t="s">
         <v>72</v>
@@ -2655,13 +2645,13 @@
       </c>
       <c r="E69" s="88"/>
       <c r="F69" s="82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G69" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H69" s="82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I69" s="60" t="s">
         <v>72</v>
@@ -2678,13 +2668,13 @@
         <v>121</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G71" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H71" s="59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I71" s="60" t="s">
         <v>72</v>
@@ -2718,13 +2708,13 @@
       </c>
       <c r="E74" s="88"/>
       <c r="F74" s="52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G74" s="63" t="s">
         <v>72</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I74" s="63" t="s">
         <v>72</v>
@@ -2739,18 +2729,18 @@
     </row>
     <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="7"/>
-      <c r="F78" s="89" t="s">
+      <c r="F78" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="89" t="s">
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="91"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="97"/>
     </row>
     <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="61" t="s">
@@ -2798,7 +2788,7 @@
         <v>64</v>
       </c>
       <c r="H81" s="83" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I81" s="60" t="s">
         <v>75</v>
@@ -2808,7 +2798,7 @@
         <v>64</v>
       </c>
       <c r="L81" s="83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M81" s="60" t="s">
         <v>75</v>
@@ -2844,7 +2834,7 @@
         <v>64</v>
       </c>
       <c r="H83" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I83" s="60" t="s">
         <v>75</v>
@@ -2854,7 +2844,7 @@
         <v>64</v>
       </c>
       <c r="L83" s="83" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M83" s="60" t="s">
         <v>75</v>
@@ -3018,13 +3008,13 @@
         <v>132</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G94" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I94" s="60" t="s">
         <v>75</v>
@@ -3055,13 +3045,13 @@
         <v>133</v>
       </c>
       <c r="F96" s="59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G96" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H96" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I96" s="60" t="s">
         <v>75</v>
@@ -3104,13 +3094,13 @@
         <v>135</v>
       </c>
       <c r="F101" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I101" s="60" t="s">
         <v>75</v>
@@ -3202,11 +3192,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="AD54:AF54"/>
     <mergeCell ref="AG54:AI54"/>
     <mergeCell ref="AJ54:AL54"/>
@@ -3216,11 +3206,11 @@
     <mergeCell ref="R54:T54"/>
     <mergeCell ref="U54:W54"/>
     <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="AA54:AC54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98332DEF-9DF7-5540-97E4-56502D4A855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9BF0F-CA2B-1D4D-A752-75353C838CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="2160" windowWidth="31440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,9 +636,6 @@
     <t>[Constants.AZA.Actual Load Year]</t>
   </si>
   <si>
-    <t>[Constants.AZA.Load Capacity Degradation]</t>
-  </si>
-  <si>
     <t>[BatteryPack.Thermal Ventilation location|AZA]</t>
   </si>
   <si>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>[System.System maintainance over project period|LFP]</t>
+  </si>
+  <si>
+    <t>[Constants.AZA.Load Capacity Degredetion]</t>
   </si>
 </sst>
 </file>
@@ -1673,8 +1673,8 @@
   </sheetPr>
   <dimension ref="A1:AL153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1773,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>52</v>
@@ -1898,13 +1898,13 @@
         <v>70</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" s="51" t="s">
         <v>52</v>
@@ -1932,13 +1932,13 @@
         <v>182</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="I25" s="51" t="s">
         <v>72</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="27" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1988,13 +1988,13 @@
         <v>74</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G32" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>75</v>
@@ -2005,13 +2005,13 @@
         <v>76</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G33" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I33" s="60" t="s">
         <v>75</v>
@@ -2022,13 +2022,13 @@
         <v>77</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G34" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I34" s="60" t="s">
         <v>75</v>
@@ -2040,13 +2040,13 @@
       </c>
       <c r="E35" s="88"/>
       <c r="F35" s="59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35" s="60" t="s">
         <v>78</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I35" s="60" t="s">
         <v>78</v>
@@ -2219,13 +2219,13 @@
         <v>78</v>
       </c>
       <c r="N49" s="67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O49" t="s">
         <v>97</v>
       </c>
       <c r="P49" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q49" t="s">
         <v>97</v>
@@ -2645,13 +2645,13 @@
       </c>
       <c r="E69" s="88"/>
       <c r="F69" s="82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G69" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H69" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I69" s="60" t="s">
         <v>72</v>
@@ -2708,13 +2708,13 @@
       </c>
       <c r="E74" s="88"/>
       <c r="F74" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G74" s="63" t="s">
         <v>72</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I74" s="63" t="s">
         <v>72</v>
@@ -2788,7 +2788,7 @@
         <v>64</v>
       </c>
       <c r="H81" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I81" s="60" t="s">
         <v>75</v>
@@ -2798,7 +2798,7 @@
         <v>64</v>
       </c>
       <c r="L81" s="83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M81" s="60" t="s">
         <v>75</v>
@@ -2834,7 +2834,7 @@
         <v>64</v>
       </c>
       <c r="H83" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I83" s="60" t="s">
         <v>75</v>
@@ -2844,7 +2844,7 @@
         <v>64</v>
       </c>
       <c r="L83" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M83" s="60" t="s">
         <v>75</v>
@@ -3008,13 +3008,13 @@
         <v>132</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G94" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I94" s="60" t="s">
         <v>75</v>
@@ -3094,13 +3094,13 @@
         <v>135</v>
       </c>
       <c r="F101" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G101" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I101" s="60" t="s">
         <v>75</v>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9BF0F-CA2B-1D4D-A752-75353C838CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4105E43-7E07-7F41-9E99-4737F1EFF056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="2160" windowWidth="31440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="212">
   <si>
     <t xml:space="preserve">Levelized Cost of Stablized Electricity </t>
   </si>
@@ -712,6 +712,12 @@
   </si>
   <si>
     <t>[Constants.AZA.Load Capacity Degredetion]</t>
+  </si>
+  <si>
+    <t>[System.BMS Cost|AZA]</t>
+  </si>
+  <si>
+    <t>[System.BMS Cost|LFP]</t>
   </si>
 </sst>
 </file>
@@ -1339,6 +1345,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1355,15 +1370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1673,8 +1679,8 @@
   </sheetPr>
   <dimension ref="A1:AL153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2285,61 +2291,61 @@
       <c r="E54" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="89" t="s">
+      <c r="F54" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="89" t="s">
+      <c r="G54" s="93"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="J54" s="90"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="89" t="s">
+      <c r="J54" s="93"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="M54" s="90"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="89" t="s">
+      <c r="M54" s="93"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="91"/>
-      <c r="R54" s="92" t="s">
+      <c r="P54" s="93"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="S54" s="93"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="89" t="s">
+      <c r="S54" s="96"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="V54" s="90"/>
-      <c r="W54" s="91"/>
-      <c r="X54" s="89" t="s">
+      <c r="V54" s="93"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="Y54" s="90"/>
-      <c r="Z54" s="91"/>
-      <c r="AA54" s="89" t="s">
+      <c r="Y54" s="93"/>
+      <c r="Z54" s="94"/>
+      <c r="AA54" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="AB54" s="90"/>
-      <c r="AC54" s="91"/>
-      <c r="AD54" s="89" t="s">
+      <c r="AB54" s="93"/>
+      <c r="AC54" s="94"/>
+      <c r="AD54" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="AE54" s="90"/>
-      <c r="AF54" s="91"/>
-      <c r="AG54" s="89" t="s">
+      <c r="AE54" s="93"/>
+      <c r="AF54" s="94"/>
+      <c r="AG54" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="AH54" s="90"/>
-      <c r="AI54" s="91"/>
-      <c r="AJ54" s="89" t="s">
+      <c r="AH54" s="93"/>
+      <c r="AI54" s="94"/>
+      <c r="AJ54" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="AK54" s="90"/>
-      <c r="AL54" s="91"/>
+      <c r="AK54" s="93"/>
+      <c r="AL54" s="94"/>
     </row>
     <row r="55" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49"/>
@@ -2729,18 +2735,18 @@
     </row>
     <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="7"/>
-      <c r="F78" s="95" t="s">
+      <c r="F78" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="95" t="s">
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="K78" s="96"/>
-      <c r="L78" s="96"/>
-      <c r="M78" s="97"/>
+      <c r="K78" s="90"/>
+      <c r="L78" s="90"/>
+      <c r="M78" s="91"/>
     </row>
     <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="61" t="s">
@@ -2766,7 +2772,9 @@
       <c r="G80" t="s">
         <v>64</v>
       </c>
-      <c r="H80" s="83"/>
+      <c r="H80" s="83" t="s">
+        <v>210</v>
+      </c>
       <c r="I80" s="60" t="s">
         <v>75</v>
       </c>
@@ -2774,7 +2782,9 @@
       <c r="K80" t="s">
         <v>64</v>
       </c>
-      <c r="L80" s="83"/>
+      <c r="L80" s="83" t="s">
+        <v>211</v>
+      </c>
       <c r="M80" s="60" t="s">
         <v>75</v>
       </c>
@@ -3192,11 +3202,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="AA54:AC54"/>
     <mergeCell ref="AD54:AF54"/>
     <mergeCell ref="AG54:AI54"/>
     <mergeCell ref="AJ54:AL54"/>
@@ -3206,11 +3216,11 @@
     <mergeCell ref="R54:T54"/>
     <mergeCell ref="U54:W54"/>
     <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/models/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4105E43-7E07-7F41-9E99-4737F1EFF056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CF2A6-D7A6-1547-BD09-B09577B4A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="2160" windowWidth="31440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,12 +574,6 @@
     <t>FOR:[Cell.Factory Cost|AZA]</t>
   </si>
   <si>
-    <t>[BatteryPack.RTE|AZA]</t>
-  </si>
-  <si>
-    <t>[BatteryPack.RTE|LFP]</t>
-  </si>
-  <si>
     <t>[BatteryPack.Battery Losses|AZA]</t>
   </si>
   <si>
@@ -718,6 +712,12 @@
   </si>
   <si>
     <t>[System.BMS Cost|LFP]</t>
+  </si>
+  <si>
+    <t>[BatterySystem.RTE|AZA]</t>
+  </si>
+  <si>
+    <t>[BatterySystem.RTE|LFP]</t>
   </si>
 </sst>
 </file>
@@ -1345,6 +1345,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1352,24 +1370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1679,8 +1679,8 @@
   </sheetPr>
   <dimension ref="A1:AL153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>52</v>
@@ -1904,13 +1904,13 @@
         <v>70</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I23" s="51" t="s">
         <v>52</v>
@@ -1921,13 +1921,13 @@
         <v>71</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I24" s="51" t="s">
         <v>52</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="25" spans="4:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I25" s="51" t="s">
         <v>72</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="27" spans="4:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="4:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1994,13 +1994,13 @@
         <v>74</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G32" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>75</v>
@@ -2011,13 +2011,13 @@
         <v>76</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G33" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I33" s="60" t="s">
         <v>75</v>
@@ -2028,13 +2028,13 @@
         <v>77</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G34" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I34" s="60" t="s">
         <v>75</v>
@@ -2046,13 +2046,13 @@
       </c>
       <c r="E35" s="88"/>
       <c r="F35" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G35" s="60" t="s">
         <v>78</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I35" s="60" t="s">
         <v>78</v>
@@ -2225,13 +2225,13 @@
         <v>78</v>
       </c>
       <c r="N49" s="67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O49" t="s">
         <v>97</v>
       </c>
       <c r="P49" s="67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q49" t="s">
         <v>97</v>
@@ -2291,61 +2291,61 @@
       <c r="E54" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="92" t="s">
+      <c r="F54" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="93"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="92" t="s">
+      <c r="G54" s="90"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="J54" s="93"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="92" t="s">
+      <c r="J54" s="90"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="M54" s="93"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="92" t="s">
+      <c r="M54" s="90"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="95" t="s">
+      <c r="P54" s="90"/>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="S54" s="96"/>
-      <c r="T54" s="97"/>
-      <c r="U54" s="92" t="s">
+      <c r="S54" s="93"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="V54" s="93"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="92" t="s">
+      <c r="V54" s="90"/>
+      <c r="W54" s="91"/>
+      <c r="X54" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="Y54" s="93"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="92" t="s">
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="91"/>
+      <c r="AA54" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="AB54" s="93"/>
-      <c r="AC54" s="94"/>
-      <c r="AD54" s="92" t="s">
+      <c r="AB54" s="90"/>
+      <c r="AC54" s="91"/>
+      <c r="AD54" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="AE54" s="93"/>
-      <c r="AF54" s="94"/>
-      <c r="AG54" s="92" t="s">
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="91"/>
+      <c r="AG54" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="AH54" s="93"/>
-      <c r="AI54" s="94"/>
-      <c r="AJ54" s="92" t="s">
+      <c r="AH54" s="90"/>
+      <c r="AI54" s="91"/>
+      <c r="AJ54" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="AK54" s="93"/>
-      <c r="AL54" s="94"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="91"/>
     </row>
     <row r="55" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49"/>
@@ -2560,13 +2560,13 @@
         <v>115</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G63" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H63" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I63" s="60" t="s">
         <v>72</v>
@@ -2577,13 +2577,13 @@
         <v>116</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G64" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H64" s="48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I64" s="60" t="s">
         <v>72</v>
@@ -2613,13 +2613,13 @@
         <v>118</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G67" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I67" s="60" t="s">
         <v>72</v>
@@ -2633,13 +2633,13 @@
       </c>
       <c r="E68" s="88"/>
       <c r="F68" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G68" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H68" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I68" s="60" t="s">
         <v>72</v>
@@ -2651,13 +2651,13 @@
       </c>
       <c r="E69" s="88"/>
       <c r="F69" s="82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G69" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H69" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I69" s="60" t="s">
         <v>72</v>
@@ -2674,13 +2674,13 @@
         <v>121</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="G71" s="60" t="s">
         <v>72</v>
       </c>
       <c r="H71" s="59" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="I71" s="60" t="s">
         <v>72</v>
@@ -2714,13 +2714,13 @@
       </c>
       <c r="E74" s="88"/>
       <c r="F74" s="52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G74" s="63" t="s">
         <v>72</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I74" s="63" t="s">
         <v>72</v>
@@ -2735,18 +2735,18 @@
     </row>
     <row r="78" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="7"/>
-      <c r="F78" s="89" t="s">
+      <c r="F78" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="89" t="s">
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="91"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="97"/>
     </row>
     <row r="79" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="61" t="s">
@@ -2773,7 +2773,7 @@
         <v>64</v>
       </c>
       <c r="H80" s="83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I80" s="60" t="s">
         <v>75</v>
@@ -2783,7 +2783,7 @@
         <v>64</v>
       </c>
       <c r="L80" s="83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M80" s="60" t="s">
         <v>75</v>
@@ -2798,7 +2798,7 @@
         <v>64</v>
       </c>
       <c r="H81" s="83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I81" s="60" t="s">
         <v>75</v>
@@ -2808,7 +2808,7 @@
         <v>64</v>
       </c>
       <c r="L81" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M81" s="60" t="s">
         <v>75</v>
@@ -2844,7 +2844,7 @@
         <v>64</v>
       </c>
       <c r="H83" s="83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I83" s="60" t="s">
         <v>75</v>
@@ -2854,7 +2854,7 @@
         <v>64</v>
       </c>
       <c r="L83" s="83" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M83" s="60" t="s">
         <v>75</v>
@@ -3018,13 +3018,13 @@
         <v>132</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G94" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I94" s="60" t="s">
         <v>75</v>
@@ -3055,13 +3055,13 @@
         <v>133</v>
       </c>
       <c r="F96" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G96" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H96" s="59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I96" s="60" t="s">
         <v>75</v>
@@ -3104,13 +3104,13 @@
         <v>135</v>
       </c>
       <c r="F101" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G101" s="60" t="s">
         <v>75</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I101" s="60" t="s">
         <v>75</v>
@@ -3202,11 +3202,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="AD54:AF54"/>
     <mergeCell ref="AG54:AI54"/>
     <mergeCell ref="AJ54:AL54"/>
@@ -3216,11 +3216,11 @@
     <mergeCell ref="R54:T54"/>
     <mergeCell ref="U54:W54"/>
     <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="AA54:AC54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/models/output/simplified.xlsx
+++ b/dataset/models/output/simplified.xlsx
@@ -418,10 +418,10 @@
     <t>Unskilled Labor + load</t>
   </si>
   <si>
+    <t>FOR:INDEX</t>
+  </si>
+  <si>
     <t>FOR:YEAR</t>
-  </si>
-  <si>
-    <t>FOR:INDEX</t>
   </si>
   <si>
     <t>FOR:[Market.Nominal WACC]</t>
@@ -1063,18 +1063,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1098,10 +1098,13 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1176,7 +1179,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
@@ -1282,6 +1285,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -1671,14 +1677,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="1.5764285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="2.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="9" width="21.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="9" width="9.719285714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="99" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="101" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="9" width="6.719285714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="9" width="34.86214285714286" customWidth="1" bestFit="1"/>
@@ -1712,7 +1718,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="1"/>
@@ -1721,7 +1727,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="38"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1753,18 +1759,18 @@
       <c r="AL1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="38"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="40"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1795,22 +1801,22 @@
       <c r="AL2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="41" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="38"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,15 +1854,15 @@
         <v>45</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="42"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1894,12 +1900,12 @@
         <v>48</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="41" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="38"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1938,12 +1944,12 @@
         <v>50</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="44" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="38"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1983,7 +1989,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2014,22 +2020,22 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="45" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="45" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="38"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2060,20 +2066,20 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="41" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="38"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2104,22 +2110,22 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="45" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="45" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="38"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2150,22 +2156,22 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="41" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2196,7 +2202,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2204,12 +2210,12 @@
         <v>63</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="41" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="38"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2240,16 +2246,16 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="38"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2282,20 +2288,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="45" t="s">
         <v>67</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="47"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2334,14 +2340,14 @@
         <v>68</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="45" t="s">
         <v>67</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2349,7 +2355,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="48" t="s">
+      <c r="Q15" s="49" t="s">
         <v>70</v>
       </c>
       <c r="R15" s="1"/>
@@ -2374,7 +2380,7 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2382,14 +2388,14 @@
         <v>71</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="45" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2420,20 +2426,20 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="45" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2464,7 +2470,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2472,10 +2478,10 @@
         <v>76</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2506,7 +2512,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2514,10 +2520,10 @@
         <v>77</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="49"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="38"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2557,7 +2563,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="38"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2597,7 +2603,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2634,14 +2640,14 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52" t="s">
+      <c r="G22" s="52"/>
+      <c r="H22" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="53"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2680,16 +2686,16 @@
         <v>80</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="58" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="1"/>
@@ -2730,16 +2736,16 @@
         <v>82</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="58" t="s">
         <v>54</v>
       </c>
       <c r="J24" s="1"/>
@@ -2780,16 +2786,16 @@
         <v>84</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="58" t="s">
         <v>86</v>
       </c>
       <c r="J25" s="1"/>
@@ -2830,16 +2836,16 @@
         <v>87</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="61" t="s">
         <v>86</v>
       </c>
       <c r="J26" s="1"/>
@@ -2881,7 +2887,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2923,7 +2929,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="38"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2954,16 +2960,16 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="44"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2994,16 +3000,16 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="44"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3040,14 +3046,14 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="61" t="s">
+      <c r="G31" s="63"/>
+      <c r="H31" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3078,7 +3084,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3086,16 +3092,16 @@
         <v>91</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="64" t="s">
+      <c r="F32" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="H32" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J32" s="1"/>
@@ -3136,16 +3142,16 @@
         <v>95</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J33" s="1"/>
@@ -3186,16 +3192,16 @@
         <v>98</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J34" s="1"/>
@@ -3228,24 +3234,24 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="31.5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="64" t="s">
+      <c r="E35" s="67"/>
+      <c r="F35" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="66" t="s">
         <v>103</v>
       </c>
       <c r="J35" s="1"/>
@@ -3281,17 +3287,17 @@
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="31.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="66" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65" t="s">
+      <c r="E36" s="67"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="64"/>
-      <c r="I36" s="65" t="s">
+      <c r="H36" s="65"/>
+      <c r="I36" s="66" t="s">
         <v>106</v>
       </c>
       <c r="J36" s="1"/>
@@ -3330,10 +3336,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="65"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="66"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3372,12 +3378,12 @@
         <v>107</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65" t="s">
+      <c r="F38" s="65"/>
+      <c r="G38" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="65" t="s">
+      <c r="H38" s="65"/>
+      <c r="I38" s="66" t="s">
         <v>108</v>
       </c>
       <c r="J38" s="1"/>
@@ -3416,12 +3422,12 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69" t="s">
+      <c r="F39" s="69"/>
+      <c r="G39" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69" t="s">
+      <c r="H39" s="69"/>
+      <c r="I39" s="70" t="s">
         <v>109</v>
       </c>
       <c r="J39" s="1"/>
@@ -3456,21 +3462,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -3503,7 +3509,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="44"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3545,7 +3551,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="44"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3585,7 +3591,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="44"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3622,14 +3628,14 @@
       <c r="C44" s="13"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="71" t="s">
+      <c r="G44" s="71"/>
+      <c r="H44" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="62"/>
+      <c r="I44" s="63"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3668,16 +3674,16 @@
         <v>113</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="73" t="s">
+      <c r="H45" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="69" t="s">
+      <c r="I45" s="70" t="s">
         <v>86</v>
       </c>
       <c r="J45" s="1"/>
@@ -3719,7 +3725,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="44"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3752,21 +3758,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="46"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="47"/>
+      <c r="P47" s="48"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -3804,10 +3810,10 @@
         <v>118</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I48" s="44"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="1" t="s">
         <v>120</v>
       </c>
@@ -3850,43 +3856,43 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="57" t="s">
         <v>126</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H49" s="56" t="s">
+      <c r="H49" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="44" t="s">
+      <c r="I49" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="J49" s="49" t="s">
+      <c r="J49" s="50" t="s">
         <v>128</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L49" s="56" t="s">
+      <c r="L49" s="57" t="s">
         <v>129</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N49" s="74" t="s">
+      <c r="N49" s="76" t="s">
         <v>130</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P49" s="74" t="s">
+      <c r="P49" s="76" t="s">
         <v>132</v>
       </c>
       <c r="Q49" s="1" t="s">
@@ -3915,7 +3921,7 @@
       <c r="AL49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="55"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3923,7 +3929,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="38"/>
+      <c r="I50" s="39"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3931,13 +3937,13 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="13"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -3955,7 +3961,7 @@
       <c r="AL50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3963,7 +3969,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="38"/>
+      <c r="I51" s="39"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3971,13 +3977,13 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="13"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
@@ -3995,7 +4001,7 @@
       <c r="AL51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="13" t="s">
@@ -4005,7 +4011,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -4013,13 +4019,13 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="13"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
@@ -4037,7 +4043,7 @@
       <c r="AL52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -4045,7 +4051,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="38"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -4053,13 +4059,13 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -4077,7 +4083,7 @@
       <c r="AL53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
@@ -4086,237 +4092,237 @@
       <c r="E54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="50" t="s">
+      <c r="G54" s="53"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="J54" s="52"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="50" t="s">
+      <c r="J54" s="53"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="M54" s="52"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="50" t="s">
+      <c r="M54" s="53"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="76" t="s">
+      <c r="P54" s="53"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="S54" s="77"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="50" t="s">
+      <c r="S54" s="79"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="V54" s="52"/>
-      <c r="W54" s="75"/>
-      <c r="X54" s="50" t="s">
+      <c r="V54" s="53"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="75"/>
-      <c r="AA54" s="50" t="s">
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="77"/>
+      <c r="AA54" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="75"/>
-      <c r="AD54" s="50" t="s">
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="77"/>
+      <c r="AD54" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="75"/>
-      <c r="AG54" s="50" t="s">
+      <c r="AE54" s="53"/>
+      <c r="AF54" s="77"/>
+      <c r="AG54" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="AH54" s="52"/>
-      <c r="AI54" s="75"/>
-      <c r="AJ54" s="50" t="s">
+      <c r="AH54" s="53"/>
+      <c r="AI54" s="77"/>
+      <c r="AJ54" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="75"/>
+      <c r="AK54" s="53"/>
+      <c r="AL54" s="77"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="G55" s="45" t="s">
+      <c r="G55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="H55" s="80"/>
-      <c r="I55" s="79" t="s">
+      <c r="H55" s="82"/>
+      <c r="I55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="K55" s="80"/>
-      <c r="L55" s="79" t="s">
+      <c r="K55" s="82"/>
+      <c r="L55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="M55" s="45" t="s">
+      <c r="M55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="N55" s="80"/>
-      <c r="O55" s="79" t="s">
+      <c r="N55" s="82"/>
+      <c r="O55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="P55" s="45" t="s">
+      <c r="P55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="Q55" s="80"/>
-      <c r="R55" s="81" t="s">
+      <c r="Q55" s="82"/>
+      <c r="R55" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="S55" s="82" t="s">
+      <c r="S55" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="T55" s="83"/>
-      <c r="U55" s="79" t="s">
+      <c r="T55" s="85"/>
+      <c r="U55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="V55" s="45" t="s">
+      <c r="V55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="W55" s="80"/>
-      <c r="X55" s="79" t="s">
+      <c r="W55" s="82"/>
+      <c r="X55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="Y55" s="45" t="s">
+      <c r="Y55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="Z55" s="80"/>
-      <c r="AA55" s="79" t="s">
+      <c r="Z55" s="82"/>
+      <c r="AA55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="AB55" s="45" t="s">
+      <c r="AB55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="AC55" s="80"/>
-      <c r="AD55" s="79" t="s">
+      <c r="AC55" s="82"/>
+      <c r="AD55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="AE55" s="45" t="s">
+      <c r="AE55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="79" t="s">
+      <c r="AF55" s="82"/>
+      <c r="AG55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="AH55" s="45" t="s">
+      <c r="AH55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="AI55" s="80"/>
-      <c r="AJ55" s="79" t="s">
+      <c r="AI55" s="82"/>
+      <c r="AJ55" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="AK55" s="45" t="s">
+      <c r="AK55" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="AL55" s="84"/>
+      <c r="AL55" s="86"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="H56" s="65" t="s">
+      <c r="H56" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J56" s="40" t="s">
+      <c r="J56" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K56" s="65" t="s">
+      <c r="K56" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="L56" s="40" t="s">
+      <c r="L56" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="M56" s="40" t="s">
+      <c r="M56" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="N56" s="65" t="s">
+      <c r="N56" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="O56" s="40" t="s">
+      <c r="O56" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="P56" s="40" t="s">
+      <c r="P56" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="Q56" s="65" t="s">
+      <c r="Q56" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="R56" s="85" t="s">
+      <c r="R56" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="S56" s="85" t="s">
+      <c r="S56" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="T56" s="83" t="s">
+      <c r="T56" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="40" t="s">
+      <c r="U56" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="V56" s="40" t="s">
+      <c r="V56" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="W56" s="65" t="s">
+      <c r="W56" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="X56" s="40" t="s">
+      <c r="X56" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="Y56" s="40" t="s">
+      <c r="Y56" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="Z56" s="65" t="s">
+      <c r="Z56" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="AA56" s="64"/>
-      <c r="AB56" s="49"/>
-      <c r="AC56" s="65" t="s">
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="AD56" s="86"/>
-      <c r="AE56" s="40"/>
-      <c r="AF56" s="57" t="s">
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="AG56" s="86"/>
-      <c r="AH56" s="40"/>
-      <c r="AI56" s="57" t="s">
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="41"/>
+      <c r="AI56" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="AJ56" s="87"/>
-      <c r="AK56" s="88"/>
-      <c r="AL56" s="57" t="s">
+      <c r="AJ56" s="89"/>
+      <c r="AK56" s="90"/>
+      <c r="AL56" s="58" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4324,16 +4330,16 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4369,7 +4375,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="38"/>
+      <c r="I58" s="39"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4409,7 +4415,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="38"/>
+      <c r="I59" s="39"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4441,7 +4447,7 @@
       <c r="AL59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="89"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="13" t="s">
@@ -4451,7 +4457,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="38"/>
+      <c r="I60" s="39"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4464,8 +4470,8 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="89"/>
-      <c r="W60" s="89"/>
+      <c r="V60" s="91"/>
+      <c r="W60" s="91"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
@@ -4491,7 +4497,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="38"/>
+      <c r="I61" s="39"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4526,18 +4532,18 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="90" t="s">
+      <c r="D62" s="92" t="s">
         <v>164</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="61" t="s">
+      <c r="F62" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="61" t="s">
+      <c r="G62" s="63"/>
+      <c r="H62" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="I62" s="91"/>
+      <c r="I62" s="93"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4568,7 +4574,7 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4576,16 +4582,16 @@
         <v>165</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="G63" s="65" t="s">
+      <c r="G63" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H63" s="54" t="s">
+      <c r="H63" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="I63" s="65" t="s">
+      <c r="I63" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J63" s="1"/>
@@ -4618,7 +4624,7 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4626,16 +4632,16 @@
         <v>168</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="G64" s="65" t="s">
+      <c r="G64" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="54" t="s">
+      <c r="H64" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="I64" s="65" t="s">
+      <c r="I64" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J64" s="1"/>
@@ -4674,10 +4680,10 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="65"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="66"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -4712,14 +4718,14 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="90" t="s">
+      <c r="D66" s="92" t="s">
         <v>171</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="65"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="66"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -4751,23 +4757,23 @@
       <c r="AL66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="20">
-      <c r="A67" s="89"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="54" t="s">
+      <c r="F67" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="G67" s="65" t="s">
+      <c r="G67" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H67" s="54" t="s">
+      <c r="H67" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="I67" s="65" t="s">
+      <c r="I67" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J67" s="1"/>
@@ -4782,8 +4788,8 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="89"/>
-      <c r="W67" s="89"/>
+      <c r="V67" s="91"/>
+      <c r="W67" s="91"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -4804,20 +4810,20 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="66" t="s">
+      <c r="D68" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="54" t="s">
+      <c r="E68" s="67"/>
+      <c r="F68" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="G68" s="65" t="s">
+      <c r="G68" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H68" s="54" t="s">
+      <c r="H68" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="I68" s="65" t="s">
+      <c r="I68" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J68" s="1"/>
@@ -4854,20 +4860,20 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="66"/>
-      <c r="F69" s="92" t="s">
+      <c r="E69" s="67"/>
+      <c r="F69" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="G69" s="65" t="s">
+      <c r="G69" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H69" s="92" t="s">
+      <c r="H69" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="I69" s="65" t="s">
+      <c r="I69" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J69" s="1"/>
@@ -4906,10 +4912,10 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="65"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="66"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -4948,16 +4954,16 @@
         <v>181</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="64" t="s">
+      <c r="F71" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="G71" s="65" t="s">
+      <c r="G71" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H71" s="64" t="s">
+      <c r="H71" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="I71" s="65" t="s">
+      <c r="I71" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J71" s="1"/>
@@ -4998,12 +5004,12 @@
         <v>184</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="65" t="s">
+      <c r="F72" s="65"/>
+      <c r="G72" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65" t="s">
+      <c r="H72" s="65"/>
+      <c r="I72" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J72" s="1"/>
@@ -5042,10 +5048,10 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="65"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="66"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5080,20 +5086,20 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="66" t="s">
+      <c r="D74" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="66"/>
-      <c r="F74" s="58" t="s">
+      <c r="E74" s="67"/>
+      <c r="F74" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="G74" s="69" t="s">
+      <c r="G74" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H74" s="58" t="s">
+      <c r="H74" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="I74" s="69" t="s">
+      <c r="I74" s="70" t="s">
         <v>86</v>
       </c>
       <c r="J74" s="1"/>
@@ -5135,7 +5141,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="38"/>
+      <c r="I75" s="39"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -5175,7 +5181,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="38"/>
+      <c r="I76" s="39"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -5217,7 +5223,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="38"/>
+      <c r="I77" s="39"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -5254,18 +5260,18 @@
       <c r="C78" s="1"/>
       <c r="D78" s="13"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="61" t="s">
+      <c r="F78" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="61" t="s">
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="93"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="95"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5298,22 +5304,22 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="67" t="s">
+      <c r="F79" s="68" t="s">
         <v>189</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I79" s="65"/>
-      <c r="J79" s="67" t="s">
+      <c r="I79" s="66"/>
+      <c r="J79" s="68" t="s">
         <v>189</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M79" s="65"/>
+      <c r="M79" s="66"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5348,24 +5354,24 @@
         <v>17</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="92"/>
+      <c r="F80" s="94"/>
       <c r="G80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H80" s="94" t="s">
+      <c r="H80" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="I80" s="65" t="s">
+      <c r="I80" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J80" s="92"/>
+      <c r="J80" s="94"/>
       <c r="K80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L80" s="94" t="s">
+      <c r="L80" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="M80" s="65" t="s">
+      <c r="M80" s="66" t="s">
         <v>93</v>
       </c>
       <c r="N80" s="1"/>
@@ -5402,24 +5408,24 @@
         <v>18</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="92"/>
+      <c r="F81" s="94"/>
       <c r="G81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H81" s="94" t="s">
+      <c r="H81" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="I81" s="65" t="s">
+      <c r="I81" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J81" s="92"/>
+      <c r="J81" s="94"/>
       <c r="K81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L81" s="94" t="s">
+      <c r="L81" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="M81" s="65" t="s">
+      <c r="M81" s="66" t="s">
         <v>93</v>
       </c>
       <c r="N81" s="1"/>
@@ -5456,20 +5462,20 @@
         <v>19</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="92"/>
+      <c r="F82" s="94"/>
       <c r="G82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H82" s="94"/>
-      <c r="I82" s="65" t="s">
+      <c r="H82" s="96"/>
+      <c r="I82" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="92"/>
+      <c r="J82" s="94"/>
       <c r="K82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L82" s="94"/>
-      <c r="M82" s="65" t="s">
+      <c r="L82" s="96"/>
+      <c r="M82" s="66" t="s">
         <v>93</v>
       </c>
       <c r="N82" s="1"/>
@@ -5506,24 +5512,24 @@
         <v>20</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="92"/>
+      <c r="F83" s="94"/>
       <c r="G83" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H83" s="94" t="s">
+      <c r="H83" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="I83" s="65" t="s">
+      <c r="I83" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J83" s="92"/>
+      <c r="J83" s="94"/>
       <c r="K83" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L83" s="94" t="s">
+      <c r="L83" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="M83" s="65" t="s">
+      <c r="M83" s="66" t="s">
         <v>93</v>
       </c>
       <c r="N83" s="1"/>
@@ -5560,25 +5566,25 @@
         <v>21</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="92"/>
+      <c r="F84" s="94"/>
       <c r="G84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="94"/>
-      <c r="I84" s="65" t="s">
+      <c r="H84" s="96"/>
+      <c r="I84" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J84" s="92"/>
+      <c r="J84" s="94"/>
       <c r="K84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L84" s="94"/>
-      <c r="M84" s="65" t="s">
+      <c r="L84" s="96"/>
+      <c r="M84" s="66" t="s">
         <v>93</v>
       </c>
       <c r="N84" s="1"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="55"/>
+      <c r="O84" s="48"/>
+      <c r="P84" s="56"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -5605,35 +5611,35 @@
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="44"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="72" t="s">
+      <c r="F85" s="97"/>
+      <c r="G85" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H85" s="96"/>
-      <c r="I85" s="69" t="s">
+      <c r="H85" s="98"/>
+      <c r="I85" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="J85" s="95"/>
-      <c r="K85" s="72" t="s">
+      <c r="J85" s="97"/>
+      <c r="K85" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="L85" s="96"/>
-      <c r="M85" s="69" t="s">
+      <c r="L85" s="98"/>
+      <c r="M85" s="70" t="s">
         <v>93</v>
       </c>
       <c r="N85" s="1"/>
-      <c r="O85" s="47"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="55"/>
-      <c r="R85" s="55"/>
-      <c r="S85" s="55"/>
-      <c r="T85" s="55"/>
-      <c r="U85" s="55"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
@@ -5655,20 +5661,20 @@
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="44"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="38"/>
+      <c r="I86" s="39"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="47"/>
-      <c r="P86" s="55"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="56"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -5695,25 +5701,25 @@
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="20">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="44"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="38"/>
+      <c r="I87" s="39"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="47"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="55"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
-      <c r="U87" s="55"/>
+      <c r="O87" s="48"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
@@ -5735,7 +5741,7 @@
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="44"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="13" t="s">
         <v>197</v>
       </c>
@@ -5743,14 +5749,14 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="38"/>
+      <c r="I88" s="39"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="55"/>
+      <c r="P88" s="56"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -5777,24 +5783,24 @@
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="20">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="44"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="61" t="s">
+      <c r="F89" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G89" s="62"/>
-      <c r="H89" s="61" t="s">
+      <c r="G89" s="63"/>
+      <c r="H89" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="I89" s="62"/>
+      <c r="I89" s="63"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="55"/>
+      <c r="P89" s="56"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -5826,12 +5832,12 @@
         <v>198</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="65" t="s">
+      <c r="F90" s="55"/>
+      <c r="G90" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="H90" s="54"/>
-      <c r="I90" s="65" t="s">
+      <c r="H90" s="55"/>
+      <c r="I90" s="66" t="s">
         <v>199</v>
       </c>
       <c r="J90" s="1"/>
@@ -5840,7 +5846,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="55"/>
+      <c r="P90" s="56"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -5872,12 +5878,12 @@
         <v>200</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="65" t="s">
+      <c r="F91" s="55"/>
+      <c r="G91" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="H91" s="54"/>
-      <c r="I91" s="65" t="s">
+      <c r="H91" s="55"/>
+      <c r="I91" s="66" t="s">
         <v>59</v>
       </c>
       <c r="J91" s="1"/>
@@ -5886,12 +5892,12 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="55"/>
-      <c r="S91" s="55"/>
-      <c r="T91" s="55"/>
-      <c r="U91" s="55"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="56"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
@@ -5918,12 +5924,12 @@
         <v>201</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="65" t="s">
+      <c r="F92" s="55"/>
+      <c r="G92" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H92" s="54"/>
-      <c r="I92" s="65" t="s">
+      <c r="H92" s="55"/>
+      <c r="I92" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J92" s="1"/>
@@ -5932,12 +5938,12 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="55"/>
-      <c r="U92" s="55"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
       <c r="V92" s="13"/>
       <c r="W92" s="13"/>
       <c r="X92" s="1"/>
@@ -5962,10 +5968,10 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="97"/>
-      <c r="G93" s="98"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="98"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="100"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="100"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -5999,21 +6005,21 @@
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="20">
       <c r="A94" s="13"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="44"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="G94" s="65" t="s">
+      <c r="G94" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H94" s="54" t="s">
+      <c r="H94" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="I94" s="65" t="s">
+      <c r="I94" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J94" s="1"/>
@@ -6023,11 +6029,11 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="55"/>
-      <c r="R94" s="55"/>
-      <c r="S94" s="55"/>
-      <c r="T94" s="55"/>
-      <c r="U94" s="55"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="56"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
       <c r="V94" s="13"/>
       <c r="W94" s="13"/>
       <c r="X94" s="1"/>
@@ -6049,13 +6055,13 @@
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="20">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="44"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="65"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="66"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -6063,11 +6069,11 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="55"/>
-      <c r="R95" s="55"/>
-      <c r="S95" s="55"/>
-      <c r="T95" s="55"/>
-      <c r="U95" s="55"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
@@ -6089,21 +6095,21 @@
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="20">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="44"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="64" t="s">
+      <c r="F96" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="G96" s="65" t="s">
+      <c r="G96" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H96" s="64" t="s">
+      <c r="H96" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="I96" s="65" t="s">
+      <c r="I96" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J96" s="1"/>
@@ -6112,7 +6118,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="55"/>
+      <c r="P96" s="56"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -6142,10 +6148,10 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="65"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="66"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -6182,10 +6188,10 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="65"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="66"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -6224,10 +6230,10 @@
         <v>208</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="65"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="66"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -6264,14 +6270,14 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="79" t="s">
+      <c r="F100" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="G100" s="65"/>
-      <c r="H100" s="79" t="s">
+      <c r="G100" s="66"/>
+      <c r="H100" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="I100" s="65"/>
+      <c r="I100" s="66"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -6310,16 +6316,16 @@
         <v>209</v>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="54" t="s">
+      <c r="F101" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="G101" s="65" t="s">
+      <c r="G101" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="I101" s="65" t="s">
+      <c r="I101" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J101" s="1"/>
@@ -6360,12 +6366,12 @@
         <v>212</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="65" t="s">
+      <c r="F102" s="55"/>
+      <c r="G102" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H102" s="54"/>
-      <c r="I102" s="65" t="s">
+      <c r="H102" s="55"/>
+      <c r="I102" s="66" t="s">
         <v>93</v>
       </c>
       <c r="J102" s="1"/>
@@ -6404,10 +6410,10 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="65"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -6442,16 +6448,16 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="66" t="s">
+      <c r="D104" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="E104" s="66"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="69" t="s">
+      <c r="E104" s="67"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H104" s="68"/>
-      <c r="I104" s="69" t="s">
+      <c r="H104" s="69"/>
+      <c r="I104" s="70" t="s">
         <v>93</v>
       </c>
       <c r="J104" s="1"/>
@@ -6493,7 +6499,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="38"/>
+      <c r="I105" s="39"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -6533,7 +6539,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="38"/>
+      <c r="I106" s="39"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -6573,7 +6579,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="38"/>
+      <c r="I107" s="39"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -6613,7 +6619,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="38"/>
+      <c r="I108" s="39"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -6653,7 +6659,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="38"/>
+      <c r="I109" s="39"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -6693,7 +6699,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="38"/>
+      <c r="I110" s="39"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -6733,7 +6739,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="38"/>
+      <c r="I111" s="39"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -6773,7 +6779,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="38"/>
+      <c r="I112" s="39"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -6813,7 +6819,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="38"/>
+      <c r="I113" s="39"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6853,7 +6859,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="38"/>
+      <c r="I114" s="39"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -6893,7 +6899,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="38"/>
+      <c r="I115" s="39"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -6933,7 +6939,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="38"/>
+      <c r="I116" s="39"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -6973,7 +6979,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="38"/>
+      <c r="I117" s="39"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -7013,7 +7019,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="38"/>
+      <c r="I118" s="39"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -7053,7 +7059,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="38"/>
+      <c r="I119" s="39"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -7093,7 +7099,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="38"/>
+      <c r="I120" s="39"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -7133,7 +7139,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="38"/>
+      <c r="I121" s="39"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -7173,7 +7179,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="38"/>
+      <c r="I122" s="39"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -7213,7 +7219,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="38"/>
+      <c r="I123" s="39"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -7253,7 +7259,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="38"/>
+      <c r="I124" s="39"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -7293,7 +7299,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="38"/>
+      <c r="I125" s="39"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -7333,7 +7339,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="38"/>
+      <c r="I126" s="39"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -7373,7 +7379,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="38"/>
+      <c r="I127" s="39"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -7413,7 +7419,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="38"/>
+      <c r="I128" s="39"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -7453,7 +7459,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="38"/>
+      <c r="I129" s="39"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -7493,7 +7499,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="38"/>
+      <c r="I130" s="39"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -7533,7 +7539,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="38"/>
+      <c r="I131" s="39"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -7573,7 +7579,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="38"/>
+      <c r="I132" s="39"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -7613,7 +7619,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="38"/>
+      <c r="I133" s="39"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -7653,7 +7659,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="38"/>
+      <c r="I134" s="39"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -7693,7 +7699,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="38"/>
+      <c r="I135" s="39"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -7733,7 +7739,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="38"/>
+      <c r="I136" s="39"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -7773,7 +7779,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="38"/>
+      <c r="I137" s="39"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -7813,7 +7819,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="38"/>
+      <c r="I138" s="39"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -7853,7 +7859,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="38"/>
+      <c r="I139" s="39"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -7893,7 +7899,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="38"/>
+      <c r="I140" s="39"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -7933,7 +7939,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="38"/>
+      <c r="I141" s="39"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -7973,7 +7979,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="38"/>
+      <c r="I142" s="39"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -8013,7 +8019,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="38"/>
+      <c r="I143" s="39"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -8053,7 +8059,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="38"/>
+      <c r="I144" s="39"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -8093,7 +8099,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="38"/>
+      <c r="I145" s="39"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -8133,7 +8139,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="38"/>
+      <c r="I146" s="39"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -8173,7 +8179,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="38"/>
+      <c r="I147" s="39"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -8213,7 +8219,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="38"/>
+      <c r="I148" s="39"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -8253,7 +8259,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="38"/>
+      <c r="I149" s="39"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -8293,7 +8299,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="38"/>
+      <c r="I150" s="39"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -8333,7 +8339,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="38"/>
+      <c r="I151" s="39"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -8373,7 +8379,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="38"/>
+      <c r="I152" s="39"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -8413,7 +8419,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="55"/>
+      <c r="I153" s="56"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -8485,16 +8491,16 @@
     <col min="2" max="2" style="9" width="3.7192857142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="3.5764285714285715" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="36" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="37" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
@@ -8543,9 +8549,9 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -8648,26 +8654,26 @@
         <v>13</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1"/>
@@ -8676,42 +8682,42 @@
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -8721,7 +8727,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1"/>
@@ -8730,7 +8736,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -8749,14 +8755,14 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -8775,7 +8781,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1"/>
@@ -8784,7 +8790,7 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -8803,14 +8809,14 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -8829,7 +8835,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
@@ -8838,7 +8844,7 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -8857,7 +8863,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1"/>
@@ -8866,7 +8872,7 @@
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -8885,7 +8891,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="24"/>
+      <c r="X14" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1"/>
@@ -8894,7 +8900,7 @@
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -8913,7 +8919,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="24"/>
+      <c r="X15" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
@@ -8922,7 +8928,7 @@
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -8941,7 +8947,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1"/>
@@ -8950,7 +8956,7 @@
       <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -8969,7 +8975,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="24"/>
+      <c r="X17" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1"/>
@@ -8978,7 +8984,7 @@
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -8997,7 +9003,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1"/>
@@ -9006,7 +9012,7 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -9025,7 +9031,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1"/>
@@ -9034,7 +9040,7 @@
       <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -9053,14 +9059,14 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="24"/>
+      <c r="X20" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -9079,7 +9085,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="24"/>
+      <c r="X21" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1"/>
@@ -9088,7 +9094,7 @@
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -9107,7 +9113,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="24"/>
+      <c r="X22" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1"/>
@@ -9116,7 +9122,7 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -9135,14 +9141,14 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="24"/>
+      <c r="X23" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -9161,7 +9167,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="24"/>
+      <c r="X24" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1"/>
@@ -9170,59 +9176,59 @@
         <v>27</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="28"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="29"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="13"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="28"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="29"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -9241,7 +9247,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="24"/>
+      <c r="X27" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
@@ -9250,7 +9256,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -9269,14 +9275,14 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="24"/>
+      <c r="X28" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -9295,7 +9301,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="24"/>
+      <c r="X29" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1"/>
@@ -9304,7 +9310,7 @@
       <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="25"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -9323,7 +9329,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="24"/>
+      <c r="X30" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1"/>
@@ -9332,7 +9338,7 @@
       <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -9351,7 +9357,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="24"/>
+      <c r="X31" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1"/>
@@ -9360,7 +9366,7 @@
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -9379,14 +9385,14 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="24"/>
+      <c r="X32" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -9405,7 +9411,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="24"/>
+      <c r="X33" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1"/>
@@ -9414,59 +9420,59 @@
         <v>32</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="28"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="29"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="13"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="28"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="29"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -9485,7 +9491,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="24"/>
+      <c r="X36" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1"/>
@@ -9494,7 +9500,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="25"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -9513,14 +9519,14 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="24"/>
+      <c r="X37" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="13"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -9539,7 +9545,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="24"/>
+      <c r="X38" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20">
       <c r="A39" s="1"/>
@@ -9548,7 +9554,7 @@
       <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -9567,7 +9573,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="24"/>
+      <c r="X39" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1"/>
@@ -9576,16 +9582,16 @@
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -9595,7 +9601,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="24"/>
+      <c r="X40" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1"/>
@@ -9604,16 +9610,16 @@
       <c r="D41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -9623,23 +9629,23 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="24"/>
+      <c r="X41" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -9649,7 +9655,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="24"/>
+      <c r="X42" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1"/>
@@ -9658,16 +9664,16 @@
         <v>37</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -9677,23 +9683,23 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="24"/>
+      <c r="X43" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -9703,7 +9709,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="24"/>
+      <c r="X44" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1"/>
@@ -9711,27 +9717,27 @@
       <c r="C45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="34"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1"/>
@@ -9792,7 +9798,7 @@
       <c r="D48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="35"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -10884,16 +10890,16 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -10910,16 +10916,16 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -10936,16 +10942,16 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -10962,16 +10968,16 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -10988,16 +10994,16 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
